--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9523207C-B18E-48F8-9F08-382171390233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{763879C2-154A-421D-9379-FA9D4D4ECA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,12 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +953,12 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>176008471024</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3869,7 +3871,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>2827</v>
@@ -4132,11 +4134,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0820854194413602E-2</v>
+        <v>3.2672531036840799E-3</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4181,7 +4183,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4547,7 +4549,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4555,21 +4557,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4583,10 +4585,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4635,7 +4637,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4656,7 +4658,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4674,7 +4676,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4781,7 +4783,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4817,8 +4819,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4861,17 +4863,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.02</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4881,40 +4883,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>179528.64044448</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>2601405.1547353878</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4937,11 +4939,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4961,7 +4963,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5004,7 +5006,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5054,7 +5056,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5094,7 +5096,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5144,12 +5146,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>5.2356346993488491E-2</v>
+        <v>3.3659693431685681E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5176,7 +5178,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0820854194413602E-2</v>
+        <v>3.2672531036840799E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5193,12 +5195,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5206,22 +5208,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40455806208655365</v>
+        <v>0.29694679748841923</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77763365832334908</v>
+        <v>0.57078537322269096</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47595066127829844</v>
-      </c>
-      <c r="G29" s="271">
+        <v>0.34934917351578737</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67620318115073841</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>0.4963351071501661</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5271,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5279,7 +5281,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5306,7 +5308,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6252,12 +6254,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6743,7 +6742,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6794,7 +6793,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6845,7 +6844,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6896,7 +6895,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6998,7 +6997,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7151,7 +7150,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8222,7 +8221,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8291,7 +8290,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8495,7 +8494,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11445,11 +11444,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11460,11 +11459,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11476,11 +11475,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11694,19 +11693,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11716,18 +11715,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11804,7 +11803,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11864,7 +11863,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11927,7 +11926,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11957,7 +11956,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12094,17 +12093,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2356346993488491E-2</v>
+        <v>3.3659693431685681E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2356346993488491E-2</v>
+        <v>3.3659693431685681E-3</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2356346993488491E-2</v>
+        <v>3.3659693431685681E-3</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12145,17 +12144,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0820854194413602E-2</v>
+        <v>3.2672531036840799E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0820854194413602E-2</v>
+        <v>3.2672531036840799E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0820854194413602E-2</v>
+        <v>3.2672531036840799E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12186,15 +12185,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12215,14 +12214,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.95730678345748332</v>
+        <v>0.70266597109816331</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.95730678345748332</v>
+        <v>0.70266597109816331</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12240,14 +12239,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.92247169866640821</v>
+        <v>0.68172291752467573</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.92247169866640821</v>
+        <v>0.68172291752467573</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12273,7 +12272,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12290,21 +12289,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83771.348174455037</v>
+        <v>61488.41388401181</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47595066127829849</v>
+        <v>0.34934917351578737</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47595066127829849</v>
+        <v>0.34934917351578737</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67620318115073841</v>
+        <v>0.4963351071501661</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,27 +12352,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83771.348174455037</v>
+        <v>61488.41388401181</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40455806208655365</v>
+        <v>0.29694679748841923</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47595066127829849</v>
+        <v>0.34934917351578737</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47595066127829844</v>
+        <v>0.34934917351578737</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47595066127829844</v>
+        <v>0.34934917351578737</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67620318115073841</v>
+        <v>0.4963351071501661</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12397,7 +12396,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12414,27 +12413,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80723.02336662251</v>
+        <v>59655.743455829463</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.3898367474158278</v>
+        <v>0.28809625833600205</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45863146754803269</v>
+        <v>0.33893677451294363</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45863146754803269</v>
+        <v>0.33893677451294363</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45863146754803269</v>
+        <v>0.33893677451294363</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65159707205548523</v>
+        <v>0.48154177266834519</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12458,7 +12457,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12475,27 +12474,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>82247.185770538767</v>
+        <v>60572.078669920629</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.3971974047511907</v>
+        <v>0.29252152791221064</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46729106441316559</v>
+        <v>0.3441429740143655</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46729106441316559</v>
+        <v>0.3441429740143655</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46729106441316559</v>
+        <v>0.3441429740143655</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66390012660311182</v>
+        <v>0.48893843990925567</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763879C2-154A-421D-9379-FA9D4D4ECA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BBCAEF-B2A9-4E6F-8BE1-295570A461FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>176008471024</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>265</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>266</v>
@@ -3701,7 +3705,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>266</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>266</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>266</v>
@@ -3728,16 +3732,16 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>2827</v>
@@ -4115,7 +4119,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.03739+0.0109</f>
@@ -4134,11 +4138,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.2672531036840799E-3</v>
+        <v>5.0828712164186961E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4183,13 +4187,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4531,7 +4535,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4549,7 +4553,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4557,26 +4561,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4585,10 +4589,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4637,7 +4641,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4658,7 +4662,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4676,7 +4680,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4733,7 +4737,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4820,7 +4824,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4861,19 +4865,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4881,42 +4885,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>2601405.1547353878</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>179528.64044448</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4939,16 +4943,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4963,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4973,40 +4977,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5019,29 +5023,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5051,12 +5055,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5066,7 +5070,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5074,7 +5078,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5088,7 +5092,7 @@
         <v>0.69462498271442097</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5096,7 +5100,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5107,14 +5111,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5126,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5142,16 +5146,16 @@
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.3659693431685681E-3</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>19.09692826847272</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5174,11 +5178,11 @@
         <v>0.12419023710495804</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.2672531036840799E-3</v>
+        <v>5.0828712164186961E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5195,12 +5199,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5208,42 +5212,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.29694679748841923</v>
+        <v>0.4046361784716257</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.57078537322269096</v>
+        <v>0.77778381212323922</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.34934917351578737</v>
-      </c>
-      <c r="G29" s="272">
+        <v>0.47604256290779495</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.4963351071501661</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>0.67633374967238202</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5253,7 +5257,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5264,14 +5268,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5281,7 +5285,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5291,14 +5295,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5308,7 +5312,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5323,14 +5327,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6315,16 +6319,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6342,7 +6346,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6375,7 +6379,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6742,7 +6746,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6793,7 +6797,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6844,7 +6848,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6895,7 +6899,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6997,7 +7001,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7150,7 +7154,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8221,7 +8225,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8290,7 +8294,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8494,7 +8498,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10392,7 +10396,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11444,11 +11448,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11459,11 +11463,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11475,11 +11479,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11693,19 +11697,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11715,18 +11719,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11803,7 +11807,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11863,7 +11867,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11926,7 +11930,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11956,7 +11960,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12089,28 +12093,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3659693431685681E-3</v>
+        <v>5.2364442382647917E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3659693431685681E-3</v>
+        <v>5.2364442382647917E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3659693431685681E-3</v>
+        <v>5.2364442382647917E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12140,21 +12144,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2672531036840799E-3</v>
+        <v>5.0828712164186961E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2672531036840799E-3</v>
+        <v>5.0828712164186961E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2672531036840799E-3</v>
+        <v>5.0828712164186961E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12185,15 +12189,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12210,24 +12214,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.70266597109816331</v>
+        <v>0.957491630460514</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.70266597109816331</v>
+        <v>0.957491630460514</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12235,18 +12239,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.68172291752467573</v>
+        <v>0.92264882890004785</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.68172291752467573</v>
+        <v>0.92264882890004785</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12265,14 +12269,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12289,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>61488.41388401181</v>
+        <v>83787.523639747335</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.34934917351578737</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.34934917351578737</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.4963351071501661</v>
+        <v>0.67633374967238202</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12352,27 +12356,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61488.41388401181</v>
+        <v>83787.523639747335</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.29694679748841923</v>
+        <v>0.4046361784716257</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.34934917351578737</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.34934917351578737</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.34934917351578737</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.4963351071501661</v>
+        <v>0.67633374967238202</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12389,14 +12393,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12413,27 +12417,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>59655.743455829463</v>
+        <v>80738.523558129411</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.28809625833600205</v>
+        <v>0.38991160269241881</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.33893677451294363</v>
+        <v>0.45871953257931625</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.33893677451294363</v>
+        <v>0.45871953257931625</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.33893677451294363</v>
+        <v>0.45871953257931625</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.48154177266834519</v>
+        <v>0.65172218976021157</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12443,21 +12447,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12470,31 +12474,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>60572.078669920629</v>
+        <v>82263.023598938365</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.29252152791221064</v>
+        <v>0.39727389058202223</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.3441429740143655</v>
+        <v>0.4673810477435556</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.3441429740143655</v>
+        <v>0.4673810477435556</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.3441429740143655</v>
+        <v>0.4673810477435556</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.48893843990925567</v>
+        <v>0.66402796971629674</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BBCAEF-B2A9-4E6F-8BE1-295570A461FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D85D25A-25A4-4E5C-AA6F-F3BF0423427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45603</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>176008471024</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>94009</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>65301</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>14206</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>2827</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
@@ -3911,7 +3912,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3943,7 +3944,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3959,7 +3960,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3975,7 +3976,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3991,7 +3992,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4007,7 +4008,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4023,7 +4024,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.03739+0.0109</f>
@@ -4138,11 +4139,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0828712164186961E-2</v>
+        <v>5.0279502119832828E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4187,21 +4188,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4211,7 +4212,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4221,7 +4222,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4232,7 +4233,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4242,7 +4243,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4252,7 +4253,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4263,7 +4264,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4273,7 +4274,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4284,7 +4285,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4292,24 +4293,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4320,7 +4321,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4331,7 +4332,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4342,7 +4343,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4353,7 +4354,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4364,7 +4365,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4375,7 +4376,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4385,31 +4386,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4417,12 +4418,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4433,7 +4434,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4444,7 +4445,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4454,7 +4455,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4465,7 +4466,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4475,85 +4476,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4561,15 +4562,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4577,10 +4578,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4590,19 +4591,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4620,7 +4621,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4641,7 +4642,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4662,7 +4663,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4680,7 +4681,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4701,7 +4702,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4719,7 +4720,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4737,7 +4738,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4865,7 +4866,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4877,15 +4878,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4894,7 +4895,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4914,11 +4915,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>179528.64044448</v>
+        <v>181288.72515472001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4926,7 +4927,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4941,7 +4942,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4952,7 +4953,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4964,10 +4965,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4977,40 +4978,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5023,29 +5024,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5055,12 +5056,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5070,29 +5071,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.69462498271442097</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5100,7 +5101,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5111,26 +5112,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5139,30 +5140,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.09692826847272</v>
+        <v>19.305526690874729</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5171,61 +5172,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.12419023710495804</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0828712164186961E-2</v>
+        <v>5.0279502119832828E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.4046361784716257</v>
+        <v>0.40310280430488127</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77778381212323922</v>
+        <v>0.77483639004811355</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67633374967238202</v>
+        <v>0.67377077395488139</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5233,21 +5234,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5257,7 +5258,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5268,14 +5269,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5285,7 +5286,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5295,14 +5296,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5312,7 +5313,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5327,14 +5328,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6314,21 +6315,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6339,14 +6340,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6368,7 +6369,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6379,7 +6380,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6390,7 +6391,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6440,7 +6441,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6491,7 +6492,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6542,7 +6543,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6593,7 +6594,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6644,7 +6645,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6695,7 +6696,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6746,7 +6747,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6797,7 +6798,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6848,7 +6849,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6899,7 +6900,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6950,7 +6951,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7001,7 +7002,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7052,7 +7053,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7103,7 +7104,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7154,7 +7155,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7205,7 +7206,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7256,7 +7257,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7307,7 +7308,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7358,7 +7359,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7409,7 +7410,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7460,7 +7461,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7511,7 +7512,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7562,7 +7563,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7613,7 +7614,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7664,7 +7665,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7715,7 +7716,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7766,7 +7767,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7817,7 +7818,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7868,7 +7869,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7919,7 +7920,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7970,7 +7971,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8021,7 +8022,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8072,7 +8073,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8123,7 +8124,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8174,7 +8175,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8225,7 +8226,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8243,7 +8244,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8294,7 +8295,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8345,7 +8346,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8396,7 +8397,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8447,7 +8448,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8498,7 +8499,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8549,7 +8550,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8600,7 +8601,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8618,7 +8619,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8669,7 +8670,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8720,7 +8721,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8737,7 +8738,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8787,7 +8788,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8837,7 +8838,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8887,7 +8888,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10246,7 +10247,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10256,12 +10257,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10275,7 +10276,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10285,7 +10286,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10303,10 +10304,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10316,7 +10317,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10330,7 +10331,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10341,7 +10342,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10353,7 +10354,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10371,7 +10372,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10390,32 +10391,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10432,7 +10433,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10443,7 +10444,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10460,7 +10461,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10471,7 +10472,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10488,7 +10489,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10499,7 +10500,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10516,7 +10517,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10527,7 +10528,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10544,7 +10545,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10554,7 +10555,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10576,7 +10577,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10598,7 +10599,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10619,7 +10620,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10644,7 +10645,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10671,7 +10672,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10692,7 +10693,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10709,7 +10710,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10721,13 +10722,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10749,7 +10750,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10769,7 +10770,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10778,7 +10779,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10798,7 +10799,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10811,7 +10812,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10831,7 +10832,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10844,7 +10845,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10861,7 +10862,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10877,7 +10878,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10886,7 +10887,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10902,7 +10903,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10912,7 +10913,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10929,7 +10930,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10939,7 +10940,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10956,7 +10957,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10966,7 +10967,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10986,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -10996,7 +10997,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11013,7 +11014,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11023,7 +11024,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11049,7 +11050,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11076,7 +11077,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11103,7 +11104,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11124,7 +11125,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11145,7 +11146,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11166,7 +11167,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11187,7 +11188,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11204,7 +11205,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11222,7 +11223,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11241,7 +11242,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11260,7 +11261,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11277,7 +11278,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11290,7 +11291,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11307,7 +11308,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11320,7 +11321,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11337,7 +11338,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11347,7 +11348,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11364,7 +11365,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11380,14 +11381,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11399,12 +11400,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11434,7 +11435,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11460,7 +11461,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11471,12 +11472,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11500,11 +11501,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11514,7 +11515,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11535,7 +11536,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11556,7 +11557,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11577,7 +11578,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11592,7 +11593,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11623,11 +11624,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11637,7 +11638,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11658,7 +11659,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11673,7 +11674,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11695,7 +11696,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11703,15 +11704,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11720,22 +11721,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11756,7 +11757,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11786,7 +11787,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11807,7 +11808,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11837,7 +11838,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11867,7 +11868,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11898,7 +11899,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11925,12 +11926,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11960,7 +11961,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11990,7 +11991,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12020,7 +12021,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12041,7 +12042,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12072,7 +12073,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12093,28 +12094,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2364442382647917E-2</v>
+        <v>5.1798638597758462E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2364442382647917E-2</v>
+        <v>5.1798638597758462E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2364442382647917E-2</v>
+        <v>5.1798638597758462E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12144,21 +12145,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0828712164186961E-2</v>
+        <v>5.0279502119832828E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0828712164186961E-2</v>
+        <v>5.0279502119832828E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0828712164186961E-2</v>
+        <v>5.0279502119832828E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12175,27 +12176,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12214,24 +12215,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.957491630460514</v>
+        <v>0.95386320322356311</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.957491630460514</v>
+        <v>0.95386320322356311</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12239,18 +12240,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.92264882890004785</v>
+        <v>0.91922143912175702</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.92264882890004785</v>
+        <v>0.91922143912175702</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12269,51 +12270,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83787.523639747335</v>
+        <v>83470.009707280988</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67633374967238202</v>
+        <v>0.67377077395488139</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12331,7 +12332,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12352,31 +12353,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83787.523639747335</v>
+        <v>83470.009707280988</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.4046361784716257</v>
+        <v>0.40310280430488127</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47604256290779495</v>
+        <v>0.47423859329986034</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67633374967238202</v>
+        <v>0.67377077395488139</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12386,58 +12387,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80738.523558129411</v>
+        <v>80438.601874288623</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38991160269241881</v>
+        <v>0.38846318700093824</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45871953257931625</v>
+        <v>0.45701551411875085</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45871953257931625</v>
+        <v>0.45701551411875085</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45871953257931625</v>
+        <v>0.45701551411875085</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65172218976021157</v>
+        <v>0.64930121885394332</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12447,58 +12448,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>82263.023598938365</v>
+        <v>81954.305790784812</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39727389058202223</v>
+        <v>0.39578299565290975</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.4673810477435556</v>
+        <v>0.46562705370930557</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.4673810477435556</v>
+        <v>0.46562705370930557</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.4673810477435556</v>
+        <v>0.46562705370930557</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66402796971629674</v>
+        <v>0.6615359964044123</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12507,7 +12508,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D85D25A-25A4-4E5C-AA6F-F3BF0423427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1E2CEC-2DAF-4D33-B720-3C364C072180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0279502119832828E-2</v>
+        <v>5.0277939077334112E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4788,7 +4788,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.305526690874729</v>
+        <v>19.30612686182906</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0279502119832828E-2</v>
+        <v>5.0277939077334112E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,20 +5213,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40310280430488127</v>
+        <v>0.40308718744085009</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77483639004811355</v>
+        <v>0.7748063716150474</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67377077395488139</v>
+        <v>0.67374467096960644</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12098,17 +12098,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1798638597758462E-2</v>
+        <v>5.1797028329754795E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1798638597758462E-2</v>
+        <v>5.1797028329754795E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1798638597758462E-2</v>
+        <v>5.1797028329754795E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0279502119832828E-2</v>
+        <v>5.0277939077334112E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0279502119832828E-2</v>
+        <v>5.0277939077334112E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0279502119832828E-2</v>
+        <v>5.0277939077334112E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,14 +12219,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.95386320322356311</v>
+        <v>0.9538262489980156</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.95386320322356311</v>
+        <v>0.9538262489980156</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,14 +12244,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.91922143912175702</v>
+        <v>0.91918602345263312</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.91922143912175702</v>
+        <v>0.91918602345263312</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12294,21 +12294,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83470.009707280988</v>
+        <v>83466.775942151202</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67377077395488139</v>
+        <v>0.67374467096960644</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12357,27 +12357,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83470.009707280988</v>
+        <v>83466.775942151202</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40310280430488127</v>
+        <v>0.40308718744085009</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47423859329986034</v>
+        <v>0.47422022051864715</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67377077395488139</v>
+        <v>0.67374467096960644</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80438.601874288623</v>
+        <v>80435.502744103534</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38846318700093824</v>
+        <v>0.3884482203311978</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45701551411875085</v>
+        <v>0.45699790627199743</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45701551411875085</v>
+        <v>0.45699790627199743</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45701551411875085</v>
+        <v>0.45699790627199743</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64930121885394332</v>
+        <v>0.64927620264332198</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>81954.305790784812</v>
+        <v>81951.139343127361</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39578299565290975</v>
+        <v>0.39576770388602395</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46562705370930557</v>
+        <v>0.46560906339532226</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46562705370930557</v>
+        <v>0.46560906339532226</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46562705370930557</v>
+        <v>0.46560906339532226</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.6615359964044123</v>
+        <v>0.66151043680646415</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1E2CEC-2DAF-4D33-B720-3C364C072180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F7D001-4D87-45AF-A8A6-CB5EEBF46FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>181288.72515472001</v>
+        <v>179528.64044448</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.30612686182906</v>
+        <v>19.116905815652952</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,20 +5213,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40308718744085009</v>
+        <v>0.4041082431209998</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.7748063716150474</v>
+        <v>0.77676902503446388</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67374467096960644</v>
+        <v>0.67545132611692515</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12098,17 +12098,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1797028329754795E-2</v>
+        <v>5.2309720497822329E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1797028329754795E-2</v>
+        <v>5.2309720497822329E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1797028329754795E-2</v>
+        <v>5.2309720497822329E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,14 +12219,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.9538262489980156</v>
+        <v>0.9562423756816707</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.9538262489980156</v>
+        <v>0.9562423756816707</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,14 +12244,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.91918602345263312</v>
+        <v>0.9214517206763535</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.91918602345263312</v>
+        <v>0.9214517206763535</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12294,21 +12294,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83466.775942151202</v>
+        <v>83678.204705790631</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67374467096960644</v>
+        <v>0.67545132611692515</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12357,27 +12357,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83466.775942151202</v>
+        <v>83678.204705790631</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40308718744085009</v>
+        <v>0.4041082431209998</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67374467096960644</v>
+        <v>0.67545132611692515</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80435.502744103534</v>
+        <v>80633.767829305041</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.3884482203311978</v>
+        <v>0.38940570448773199</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45699790627199743</v>
+        <v>0.45812435822086117</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45699790627199743</v>
+        <v>0.45812435822086117</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45699790627199743</v>
+        <v>0.45812435822086117</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64927620264332198</v>
+        <v>0.65087660044335716</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>81951.139343127361</v>
+        <v>82155.986267547836</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39576770388602395</v>
+        <v>0.39675697380436592</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46560906339532226</v>
+        <v>0.46677291035807755</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46560906339532226</v>
+        <v>0.46677291035807755</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46560906339532226</v>
+        <v>0.46677291035807755</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66151043680646415</v>
+        <v>0.66316396328014116</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F7D001-4D87-45AF-A8A6-CB5EEBF46FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3D5DD1-F660-4DAD-BDC0-27B3F1F79FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.116905815652952</v>
+        <v>19.117500085804895</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,20 +5213,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.4041082431209998</v>
+        <v>0.40409255927655879</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77676902503446388</v>
+        <v>0.77673887785295348</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67545132611692515</v>
+        <v>0.6754251111764813</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12098,17 +12098,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2309720497822329E-2</v>
+        <v>5.2308094442877442E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2309720497822329E-2</v>
+        <v>5.2308094442877442E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2309720497822329E-2</v>
+        <v>5.2308094442877442E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,14 +12219,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.9562423756816707</v>
+        <v>0.95620526296020714</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.9562423756816707</v>
+        <v>0.95620526296020714</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,14 +12244,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.9214517206763535</v>
+        <v>0.92141615690977019</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.9214517206763535</v>
+        <v>0.92141615690977019</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12294,21 +12294,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83678.204705790631</v>
+        <v>83674.957071108482</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67545132611692515</v>
+        <v>0.6754251111764813</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12357,27 +12357,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83678.204705790631</v>
+        <v>83674.957071108482</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.4041082431209998</v>
+        <v>0.40409255927655879</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67545132611692515</v>
+        <v>0.6754251111764813</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80633.767829305041</v>
+        <v>80630.655739508627</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38940570448773199</v>
+        <v>0.38939067523197191</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45812435822086117</v>
+        <v>0.45810667674349637</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45812435822086117</v>
+        <v>0.45810667674349637</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45812435822086117</v>
+        <v>0.45810667674349637</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65087660044335716</v>
+        <v>0.65085147962262047</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>82155.986267547836</v>
+        <v>82152.806405308555</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39675697380436592</v>
+        <v>0.39674161725426538</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46677291035807755</v>
+        <v>0.46675484382854748</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46677291035807755</v>
+        <v>0.46675484382854748</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46677291035807755</v>
+        <v>0.46675484382854748</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66316396328014116</v>
+        <v>0.66313829539955083</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3D5DD1-F660-4DAD-BDC0-27B3F1F79FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{936AD431-3800-4C8C-8879-13ECF2331189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4580,7 +4580,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.117500085804895</v>
+        <v>19.118094392905071</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,20 +5213,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40409255927655879</v>
+        <v>0.40407687564552097</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77673887785295348</v>
+        <v>0.7767087310816424</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296588</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.6754251111764813</v>
+        <v>0.67539889659273256</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12098,17 +12098,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2308094442877442E-2</v>
+        <v>5.230646838793257E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2308094442877442E-2</v>
+        <v>5.230646838793257E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2308094442877442E-2</v>
+        <v>5.230646838793257E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,14 +12219,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.95620526296020714</v>
+        <v>0.95616815074371997</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.95620526296020714</v>
+        <v>0.95616815074371997</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,14 +12244,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.92141615690977019</v>
+        <v>0.92138059361501778</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.92141615690977019</v>
+        <v>0.92138059361501778</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12294,21 +12294,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83674.957071108482</v>
+        <v>83671.709480615449</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296583</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296583</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.6754251111764813</v>
+        <v>0.67539889659273256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12357,27 +12357,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83674.957071108482</v>
+        <v>83671.709480615449</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40409255927655879</v>
+        <v>0.40407687564552097</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296583</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296588</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296588</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.6754251111764813</v>
+        <v>0.67539889659273256</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80630.655739508627</v>
+        <v>80627.543691000858</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38939067523197191</v>
+        <v>0.38937564617560766</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45810667674349637</v>
+        <v>0.45808899550071491</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45810667674349637</v>
+        <v>0.45808899550071491</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45810667674349637</v>
+        <v>0.45808899550071491</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65085147962262047</v>
+        <v>0.65082635913516607</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>82152.806405308555</v>
+        <v>82149.626585808146</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39674161725426538</v>
+        <v>0.39672626091056429</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46675484382854748</v>
+        <v>0.4667367775418404</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46675484382854748</v>
+        <v>0.4667367775418404</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46675484382854748</v>
+        <v>0.4667367775418404</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66313829539955083</v>
+        <v>0.66311262786394931</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936AD431-3800-4C8C-8879-13ECF2331189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D836EB9-757F-4063-856E-7440B7D7FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5017,7 +5017,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5064,7 +5064,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.118094392905071</v>
+        <v>19.118688736956933</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,20 +5213,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40407687564552097</v>
+        <v>0.42162907015083623</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.7767087310816424</v>
+        <v>0.82188326398547173</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47538455958296588</v>
+        <v>0.49603420017745437</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67539889659273256</v>
+        <v>0.71468109911780153</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12098,17 +12098,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230646838793257E-2</v>
+        <v>5.230484233298769E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230646838793257E-2</v>
+        <v>5.230484233298769E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230646838793257E-2</v>
+        <v>5.230484233298769E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12219,14 +12219,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.95616815074371997</v>
+        <v>0.99770195377273641</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.95616815074371997</v>
+        <v>0.99770195377273641</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,14 +12244,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.92138059361501778</v>
+        <v>0.96140351039174632</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.92138059361501778</v>
+        <v>0.96140351039174632</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12294,21 +12294,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83671.709480615449</v>
+        <v>87306.221148846496</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47538455958296583</v>
+        <v>0.49603420017745442</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47538455958296583</v>
+        <v>0.49603420017745442</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67539889659273256</v>
+        <v>0.71468109911780153</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12357,27 +12357,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83671.709480615449</v>
+        <v>87306.221148846496</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40407687564552097</v>
+        <v>0.42162907015083623</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47538455958296583</v>
+        <v>0.49603420017745442</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47538455958296588</v>
+        <v>0.49603420017745437</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47538455958296588</v>
+        <v>0.49603420017745437</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67539889659273256</v>
+        <v>0.71468109911780153</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80627.543691000858</v>
+        <v>84129.841756989073</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38937564617560766</v>
+        <v>0.40628933981075133</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45808899550071491</v>
+        <v>0.47798745860088393</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45808899550071491</v>
+        <v>0.47798745860088393</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45808899550071491</v>
+        <v>0.47798745860088393</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65082635913516607</v>
+        <v>0.68867953490947831</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>82149.626585808146</v>
+        <v>85718.031452917785</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39672626091056429</v>
+        <v>0.41395920498079375</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.4667367775418404</v>
+        <v>0.48701082938916918</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.4667367775418404</v>
+        <v>0.48701082938916918</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.4667367775418404</v>
+        <v>0.48701082938916918</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66311262786394931</v>
+        <v>0.70168031701363986</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D836EB9-757F-4063-856E-7440B7D7FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A881A85-F4BE-4BFB-A3C2-C566051B21BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>176008471024</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,386 +3806,386 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>94009</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>92170</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>65301</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>65065</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>14206</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>13793</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>2827</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>3003</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.03739+0.0109</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0770860048680526E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>5.023179113247634E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4190,10 +4194,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4292,7 +4296,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4304,7 +4308,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4324,7 +4328,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4404,7 +4408,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4417,7 +4421,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4465,14 +4469,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4556,7 +4560,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4564,19 +4568,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4590,14 +4595,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4609,12 +4614,12 @@
         <f>C25</f>
         <v>94009</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>94009</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>94009</v>
       </c>
@@ -4627,15 +4632,15 @@
         <f>C26</f>
         <v>65301</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>65301</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>65301</v>
       </c>
@@ -4648,15 +4653,15 @@
         <f>C27+C28</f>
         <v>14206</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>14206</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>14206</v>
       </c>
@@ -4669,12 +4674,12 @@
         <f>C29</f>
         <v>2827</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>2827</v>
       </c>
@@ -4687,15 +4692,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4708,12 +4713,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4726,12 +4731,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4740,16 +4745,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>4.829E-2</v>
       </c>
@@ -4868,17 +4873,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4888,40 +4893,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>179528.64044448</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>181288.72515472001</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4929,11 +4934,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4944,22 +4949,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -4968,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4988,7 +4993,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4999,7 +5004,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5013,11 +5018,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5026,7 +5031,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5037,7 +5042,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5048,10 +5053,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5063,10 +5068,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5088,14 +5093,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69462498271442097</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5103,7 +5108,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.15111319129019563</v>
       </c>
@@ -5114,7 +5119,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5126,14 +5131,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5142,30 +5147,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.118688736956933</v>
+        <v>19.323863399940695</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.97067227017832514</v>
       </c>
@@ -5174,16 +5179,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.12419023710495804</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0770860048680526E-2</v>
+        <v>5.023179113247634E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5202,10 +5207,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5213,22 +5218,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42162907015083623</v>
+        <v>0.40262620332698124</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.82188326398547173</v>
+        <v>0.77392027689468057</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.49603420017745437</v>
-      </c>
-      <c r="G29" s="273">
+        <v>0.47367788626703677</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.71468109911780153</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>0.67297415382146142</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,17 +5245,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5260,7 +5265,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5268,17 +5273,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5288,24 +5293,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5315,7 +5320,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5334,10 +5339,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6319,16 +6324,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6342,11 +6347,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6379,7 +6384,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6443,47 +6448,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>94009</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>92170</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6545,47 +6550,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>65301</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>65065</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6596,47 +6601,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>28708</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>27105</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6647,47 +6652,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14206</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13793</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6698,47 +6703,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6749,47 +6754,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200" t="str">
+      <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="200" t="str">
+      <c r="D12" s="199" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6797,50 +6802,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.14442877291960507</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6848,50 +6853,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>14502</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>13312</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6899,50 +6904,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.9393028846153841E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6953,47 +6958,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7004,47 +7009,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>2827</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3003</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7055,47 +7060,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7106,47 +7111,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7157,47 +7162,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7208,47 +7213,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7259,47 +7264,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>11675</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10309</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7310,47 +7315,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>8.3885754583921016E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7361,7 +7366,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8756.25</v>
       </c>
@@ -7409,50 +7414,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13250557765059656</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7569,43 +7574,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7620,43 +7625,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7671,43 +7676,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7722,43 +7727,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7773,43 +7778,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7824,43 +7829,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7875,43 +7880,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7977,43 +7982,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8028,43 +8033,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8079,43 +8084,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8177,47 +8182,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8246,47 +8251,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.70592383638928069</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8297,47 +8302,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.14964739069111424</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8348,47 +8353,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8399,47 +8404,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>3.258110014104372E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8450,47 +8455,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8501,47 +8506,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8552,47 +8557,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.11184767277856135</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8621,47 +8626,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8672,47 +8677,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8740,47 +8745,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8790,47 +8795,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8840,47 +8845,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.24214132762312635</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.29129886506935687</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8890,47 +8895,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10228,8 +10233,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10278,7 +10283,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10422,7 +10427,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10450,7 +10455,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10478,7 +10483,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10506,7 +10511,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10519,7 +10524,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10534,7 +10539,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10561,7 +10566,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10583,7 +10588,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10605,7 +10610,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10626,7 +10631,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10651,7 +10656,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10678,7 +10683,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10699,7 +10704,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10864,7 +10869,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10893,7 +10898,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10919,7 +10924,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10946,7 +10951,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10973,7 +10978,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10989,7 +10994,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11003,7 +11008,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11030,7 +11035,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11056,7 +11061,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11083,7 +11088,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11110,7 +11115,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11131,7 +11136,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11152,7 +11157,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11173,7 +11178,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11194,7 +11199,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11340,7 +11345,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11449,11 +11454,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11464,11 +11469,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11480,11 +11485,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11580,8 +11585,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11661,8 +11666,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11698,19 +11703,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11720,18 +11725,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11742,17 +11747,17 @@
         <f>Data!C6</f>
         <v>94009</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>94009</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>94009</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11763,23 +11768,23 @@
         <f>Data!C8</f>
         <v>65301</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>65301</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>65301</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.69462498271442097</v>
       </c>
@@ -11789,21 +11794,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>28708</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>28708</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>28708</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,23 +11819,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14206</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>14206</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>14206</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.15111319129019563</v>
       </c>
@@ -11844,54 +11849,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>14502</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>14502</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>14502</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.15426182599538343</v>
       </c>
@@ -11905,27 +11910,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11937,23 +11942,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>2827</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>2827</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>2827</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
@@ -11967,23 +11972,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11993,27 +11998,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>11675</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>11675</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>11675</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.12419023710495804</v>
       </c>
@@ -12023,49 +12028,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>8756.25</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
@@ -12075,69 +12080,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230484233298769E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>5.1749486078600047E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230484233298769E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>5.1749486078600047E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.230484233298769E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>5.1749486078600047E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.97067227017832514</v>
       </c>
@@ -12147,21 +12152,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0770860048680526E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>5.023179113247634E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0770860048680526E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>5.023179113247634E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0770860048680526E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>5.023179113247634E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12183,22 +12188,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12208,9 +12213,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12218,15 +12223,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.99770195377273641</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>0.95273542110301168</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.99770195377273641</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>0.95273542110301168</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12234,24 +12239,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>0.96140351039174632</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>0.91814060583187651</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>0.96140351039174632</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>0.91814060583187651</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12272,14 +12280,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12294,21 +12302,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>87306.221148846496</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>83371.320519741304</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.49603420017745442</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>0.47367788626703677</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.49603420017745442</v>
+        <v>0.47367788626703677</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.71468109911780153</v>
+        <v>0.67297415382146142</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12320,14 +12328,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12338,17 +12346,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12357,27 +12365,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>87306.221148846496</v>
+        <v>83371.320519741304</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42162907015083623</v>
+        <v>0.40262620332698124</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.49603420017745442</v>
+        <v>0.47367788626703677</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.49603420017745437</v>
+        <v>0.47367788626703677</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.49603420017745437</v>
+        <v>0.47367788626703672</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.71468109911780153</v>
+        <v>0.67297415382146142</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12396,14 +12404,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12418,27 +12426,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>84129.841756989073</v>
+        <v>80344.021052957658</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.40628933981075133</v>
+        <v>0.3880064266094434</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.47798745860088393</v>
+        <v>0.45647814895228639</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.47798745860088393</v>
+        <v>0.45647814895228639</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.47798745860088393</v>
+        <v>0.45647814895228639</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.68867953490947831</v>
+        <v>0.64853776149467213</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12457,14 +12465,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12479,27 +12487,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>85718.031452917785</v>
+        <v>81857.670786349481</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.41395920498079375</v>
+        <v>0.39531631496821229</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.48701082938916918</v>
+        <v>0.46507801760966161</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.48701082938916918</v>
+        <v>0.46507801760966161</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.48701082938916918</v>
+        <v>0.46507801760966155</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.70168031701363986</v>
+        <v>0.66075595765806683</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A881A85-F4BE-4BFB-A3C2-C566051B21BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0A2D73-A348-4D6F-BE1A-C6FCF09F89BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>中国铁塔</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0010</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3690,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3713,7 +3716,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4147,7 +4150,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.023179113247634E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4571,7 +4574,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4886,7 +4891,7 @@
         <v>1.03</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4962,7 +4967,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4973,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5019,10 +5024,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5069,7 +5074,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5156,7 +5161,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.323863399940695</v>
+        <v>19.364771802942848</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5193,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.023179113247634E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.40262620332698124</v>
+        <v>0.401566883997928</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77392027689468057</v>
+        <v>0.70374093751366629</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.47367788626703677</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67297415382146142</v>
+        <v>0.61194864131623161</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12103,17 +12108,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1749486078600047E-2</v>
+        <v>5.1640164427242612E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1749486078600047E-2</v>
+        <v>5.1640164427242612E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1749486078600047E-2</v>
+        <v>5.1640164427242612E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12159,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.023179113247634E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.023179113247634E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.023179113247634E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12213,7 +12218,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12224,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.95273542110301168</v>
+        <v>0.95022875104848359</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.95273542110301168</v>
+        <v>0.95022875104848359</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12245,21 +12250,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91814060583187651</v>
+        <v>0.9157382469514157</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91814060583187651</v>
+        <v>0.9157382469514157</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12302,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83371.320519741304</v>
+        <v>83151.968548643854</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.47367788626703677</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.47367788626703677</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67297415382146142</v>
+        <v>0.61194864131623161</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12365,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83371.320519741304</v>
+        <v>83151.968548643854</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.40262620332698124</v>
+        <v>0.401566883997928</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.47367788626703677</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.47367788626703677</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.47367788626703672</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.67297415382146142</v>
+        <v>0.61194864131623161</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12426,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80344.021052957658</v>
+        <v>80133.797072836853</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.3880064266094434</v>
+        <v>0.38699118920602144</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45647814895228639</v>
+        <v>0.45528375200708404</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45647814895228639</v>
+        <v>0.45528375200708404</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45647814895228639</v>
+        <v>0.45528375200708404</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64853776149467213</v>
+        <v>0.58973670856085691</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12487,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>81857.670786349481</v>
+        <v>81642.882810740353</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39531631496821229</v>
+        <v>0.39427903660197472</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46507801760966161</v>
+        <v>0.46385769011997025</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46507801760966161</v>
+        <v>0.46385769011997025</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46507801760966155</v>
+        <v>0.46385769011997025</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66075595765806683</v>
+        <v>0.60084267493854426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0A2D73-A348-4D6F-BE1A-C6FCF09F89BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B42FD08-F7A8-4EED-850B-7898DB98230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.012567563697358E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>181288.72515472001</v>
+        <v>190089.14870592</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.364771802942848</v>
+        <v>20.27735291550103</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.012567563697358E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.401566883997928</v>
+        <v>0.39768701320199951</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.70374093751366629</v>
+        <v>0.69694151251084979</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.61194864131623161</v>
+        <v>0.60603609783552159</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1640164427242612E-2</v>
+        <v>4.9316101769652072E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1640164427242612E-2</v>
+        <v>4.9316101769652072E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1640164427242612E-2</v>
+        <v>4.9316101769652072E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.012567563697358E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.012567563697358E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.012567563697358E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.95022875104848359</v>
+        <v>0.94104780279911637</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.95022875104848359</v>
+        <v>0.94104780279911637</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.9157382469514157</v>
+        <v>0.90717105583602853</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.9157382469514157</v>
+        <v>0.90717105583602853</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83151.968548643854</v>
+        <v>82348.568399747339</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61194864131623161</v>
+        <v>0.60603609783552159</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83151.968548643854</v>
+        <v>82348.568399747339</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.401566883997928</v>
+        <v>0.39768701320199951</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.4724316282328565</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.61194864131623161</v>
+        <v>0.60603609783552159</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>80133.797072836853</v>
+        <v>79384.105164029781</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38699118920602144</v>
+        <v>0.38337069231301041</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45528375200708404</v>
+        <v>0.45102434389765933</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45528375200708404</v>
+        <v>0.45102434389765933</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45528375200708404</v>
+        <v>0.45102434389765933</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.58973670856085691</v>
+        <v>0.58421942553066775</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>81642.882810740353</v>
+        <v>80866.336781888545</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39427903660197472</v>
+        <v>0.39052885275750493</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.46385769011997025</v>
+        <v>0.45944570912647642</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.46385769011997025</v>
+        <v>0.45944570912647642</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.46385769011997025</v>
+        <v>0.45944570912647642</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.60084267493854426</v>
+        <v>0.59512776168309467</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B42FD08-F7A8-4EED-850B-7898DB98230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05F8696-40E2-46CC-9F17-D2A9E28B7B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0788.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3716,7 +3724,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4150,7 +4158,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7869772461093495E-2</v>
+        <v>4.8340063411498733E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4271,7 +4279,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4383,7 +4391,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4888,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4929,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>190089.14870592</v>
+        <v>188329.06399568002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4978,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5024,10 +5032,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5074,7 +5082,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5161,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.27735291550103</v>
+        <v>20.080078545106534</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5201,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7869772461093495E-2</v>
+        <v>4.8340063411498733E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5231,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.39768701320199951</v>
+        <v>0.47459898722937449</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.69694151251084979</v>
+        <v>0.87694239755543746</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.60603609783552159</v>
+        <v>0.76255860656994567</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12108,17 +12116,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9316101769652072E-2</v>
+        <v>4.9800602012271385E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9316101769652072E-2</v>
+        <v>4.9800602012271385E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9316101769652072E-2</v>
+        <v>4.9800602012271385E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12167,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7869772461093495E-2</v>
+        <v>4.8340063411498733E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7869772461093495E-2</v>
+        <v>4.8340063411498733E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7869772461093495E-2</v>
+        <v>4.8340063411498733E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12218,7 +12226,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12229,14 +12237,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.94104780279911637</v>
+        <v>1.123044804875321</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.94104780279911637</v>
+        <v>1.123044804875321</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12265,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90717105583602853</v>
+        <v>1.0825464357627679</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90717105583602853</v>
+        <v>1.0825464357627679</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12315,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>82348.568399747339</v>
+        <v>98274.637755036587</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.60603609783552159</v>
+        <v>0.76255860656994567</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12378,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>82348.568399747339</v>
+        <v>98274.637755036587</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.39768701320199951</v>
+        <v>0.47459898722937449</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.46786707435529357</v>
+        <v>0.55835174968161705</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.60603609783552159</v>
+        <v>0.76255860656994567</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12439,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>79384.105164029781</v>
+        <v>94730.734130774901</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.38337069231301041</v>
+        <v>0.45748436733013287</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.45102434389765933</v>
+        <v>0.53821690274133283</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.45102434389765933</v>
+        <v>0.53821690274133283</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.45102434389765933</v>
+        <v>0.53821690274133283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.58421942553066775</v>
+        <v>0.73505981063165504</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12500,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>80866.336781888545</v>
+        <v>96502.685942905751</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.39052885275750493</v>
+        <v>0.46604167727975365</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.45944570912647642</v>
+        <v>0.54828432621147494</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.45944570912647642</v>
+        <v>0.54828432621147494</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.45944570912647642</v>
+        <v>0.54828432621147494</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.59512776168309467</v>
+        <v>0.74880920860080036</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05F8696-40E2-46CC-9F17-D2A9E28B7B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{132C3251-016E-4DF7-A6BA-0D7D9B945608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3724,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4158,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8340063411498733E-2</v>
+        <v>4.8759655845615098E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4896,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4937,7 +4941,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>188329.06399568002</v>
+        <v>186568.97928544</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5007,7 +5011,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5018,7 +5022,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5045,7 +5049,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5169,7 +5173,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.080078545106534</v>
+        <v>19.907283046699696</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5201,7 +5205,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8340063411498733E-2</v>
+        <v>4.8759655845615098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5231,20 +5235,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.47459898722937449</v>
+        <v>0.47522169647086709</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.87694239755543746</v>
+        <v>0.87809301133656315</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.76255860656994567</v>
+        <v>0.7635591402926637</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5279,8 +5283,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6306,12 +6310,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8737,118 +8741,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8856,107 +8861,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.24214132762312635</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.29129886506935687</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.24214132762312635</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.29129886506935687</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9524,7 +9576,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10207,6 +10261,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12116,17 +12171,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9800602012271385E-2</v>
+        <v>5.0232871942099792E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9800602012271385E-2</v>
+        <v>5.0232871942099792E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9800602012271385E-2</v>
+        <v>5.0232871942099792E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12167,17 +12222,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8340063411498733E-2</v>
+        <v>4.8759655845615098E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8340063411498733E-2</v>
+        <v>4.8759655845615098E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8340063411498733E-2</v>
+        <v>4.8759655845615098E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12237,14 +12292,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.123044804875321</v>
+        <v>1.1245183233560254</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.123044804875321</v>
+        <v>1.1245183233560254</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,14 +12320,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0825464357627679</v>
+        <v>1.0839044120366705</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0825464357627679</v>
+        <v>1.0839044120366705</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12370,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>98274.637755036587</v>
+        <v>98403.581403845572</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.76255860656994567</v>
+        <v>0.7635591402926637</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12433,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>98274.637755036587</v>
+        <v>98403.581403845572</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.47459898722937449</v>
+        <v>0.47522169647086709</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.55835174968161705</v>
+        <v>0.55908434878925539</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.76255860656994567</v>
+        <v>0.7635591402926637</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12494,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>94730.734130774901</v>
+        <v>94849.566991065396</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.45748436733013287</v>
+        <v>0.45805824840903364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.53821690274133283</v>
+        <v>0.53889205695180431</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.53821690274133283</v>
+        <v>0.53889205695180431</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.53821690274133283</v>
+        <v>0.53889205695180431</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.73505981063165504</v>
+        <v>0.73598189004530523</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12555,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96502.685942905751</v>
+        <v>96626.574197455484</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.46604167727975365</v>
+        <v>0.46663997243995037</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.54828432621147494</v>
+        <v>0.54898820287052985</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.54828432621147494</v>
+        <v>0.54898820287052985</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.54828432621147494</v>
+        <v>0.54898820287052985</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.74880920860080036</v>
+        <v>0.74977051516898441</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{132C3251-016E-4DF7-A6BA-0D7D9B945608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE9EA20-4036-480A-B9F4-1648B6148495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8759655845615098E-2</v>
+        <v>4.8285906382067548E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>186568.97928544</v>
+        <v>188329.06399568002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4990,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>19.907283046699696</v>
+        <v>20.102600176908226</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8759655845615098E-2</v>
+        <v>4.8285906382067548E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5235,20 +5235,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.47522169647086709</v>
+        <v>0.47394131581800297</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.87809301133656315</v>
+        <v>0.87572718226882507</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.55908434878925539</v>
+        <v>0.55757801860941525</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.7635591402926637</v>
+        <v>0.76150189762506537</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10301,8 +10301,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12171,17 +12171,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0232871942099792E-2</v>
+        <v>4.9744808691399828E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0232871942099792E-2</v>
+        <v>4.9744808691399828E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0232871942099792E-2</v>
+        <v>4.9744808691399828E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8759655845615098E-2</v>
+        <v>4.8285906382067548E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8759655845615098E-2</v>
+        <v>4.8285906382067548E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8759655845615098E-2</v>
+        <v>4.8285906382067548E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,14 +12292,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1245183233560254</v>
+        <v>1.1214885553220557</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1245183233560254</v>
+        <v>1.1214885553220557</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12320,14 +12320,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0839044120366705</v>
+        <v>1.0810543434043616</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0839044120366705</v>
+        <v>1.0810543434043616</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12370,21 +12370,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>98403.581403845572</v>
+        <v>98138.454532034593</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.55908434878925539</v>
+        <v>0.55757801860941525</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.55908434878925539</v>
+        <v>0.55757801860941525</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.7635591402926637</v>
+        <v>0.76150189762506537</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12393,7 +12393,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12432,28 +12432,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>98403.581403845572</v>
+        <f>C97+C98+$C$99</f>
+        <v>98138.454532034593</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.47522169647086709</v>
+        <v>0.47394131581800297</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>0.55908434878925539</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>0.55757801860941525</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.55908434878925539</v>
+        <v>0.55757801860941525</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.55908434878925539</v>
+        <v>0.55757801860941525</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>0.7635591402926637</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>0.76150189762506537</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>94849.566991065396</v>
+        <v>94600.165131761794</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.45805824840903364</v>
+        <v>0.45685380876374426</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.53889205695180431</v>
+        <v>0.53747506913381682</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.53889205695180431</v>
+        <v>0.53747506913381682</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.53889205695180431</v>
+        <v>0.53747506913381682</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.73598189004530523</v>
+        <v>0.73404666506100591</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12555,27 +12555,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96626.574197455484</v>
+        <v>96369.309831898194</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.46663997243995037</v>
+        <v>0.46539756229087359</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.54898820287052985</v>
+        <v>0.54752654387161603</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.54898820287052985</v>
+        <v>0.54752654387161603</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.54898820287052985</v>
+        <v>0.54752654387161603</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.74977051516898441</v>
+        <v>0.7477742813430357</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE9EA20-4036-480A-B9F4-1648B6148495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACAF7725-1338-4923-80BD-ABDA941C6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8285906382067548E-2</v>
+        <v>4.78545263107912E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>188329.06399568002</v>
+        <v>190089.14870592</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4990,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.102600176908226</v>
+        <v>20.28381315226682</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8285906382067548E-2</v>
+        <v>4.78545263107912E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5235,20 +5235,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.47394131581800297</v>
+        <v>0.47309426688581463</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.87572718226882507</v>
+        <v>0.87416204382262575</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.76150189762506537</v>
+        <v>0.7601409076718485</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12171,17 +12171,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9744808691399828E-2</v>
+        <v>4.9300394974711392E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9744808691399828E-2</v>
+        <v>4.9300394974711392E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9744808691399828E-2</v>
+        <v>4.9300394974711392E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8285906382067548E-2</v>
+        <v>4.78545263107912E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8285906382067548E-2</v>
+        <v>4.78545263107912E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8285906382067548E-2</v>
+        <v>4.78545263107912E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,14 +12292,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1214885553220557</v>
+        <v>1.1194841812539131</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1214885553220557</v>
+        <v>1.1194841812539131</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12320,14 +12320,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0810543434043616</v>
+        <v>1.0791861699443239</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0810543434043616</v>
+        <v>1.0791861699443239</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12370,21 +12370,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>98138.454532034593</v>
+        <v>97963.057135049923</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.76150189762506537</v>
+        <v>0.7601409076718485</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12433,27 +12433,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>98138.454532034593</v>
+        <v>97963.057135049923</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.47394131581800297</v>
+        <v>0.47309426688581463</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.55757801860941525</v>
+        <v>0.5565814904538996</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.76150189762506537</v>
+        <v>0.7601409076718485</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>94600.165131761794</v>
+        <v>94436.686284567302</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.45685380876374426</v>
+        <v>0.45606431823918675</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.53747506913381682</v>
+        <v>0.53654625675198442</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.53747506913381682</v>
+        <v>0.53654625675198442</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.53747506913381682</v>
+        <v>0.53654625675198442</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.73404666506100591</v>
+        <v>0.73277815667707247</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12555,27 +12555,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96369.309831898194</v>
+        <v>96199.87170980862</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.46539756229087359</v>
+        <v>0.46457929256250069</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.54752654387161603</v>
+        <v>0.54656387360294201</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.54752654387161603</v>
+        <v>0.54656387360294201</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.54752654387161603</v>
+        <v>0.54656387360294201</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.7477742813430357</v>
+        <v>0.74645953217446048</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACAF7725-1338-4923-80BD-ABDA941C6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7859644D-63F4-40F2-A562-F30C5F491E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.78545263107912E-2</v>
+        <v>4.7411064709362995E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>190089.14870592</v>
+        <v>191849.23341616002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4990,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5036,10 +5036,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5086,7 +5086,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.28381315226682</v>
+        <v>20.473538743090739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.78545263107912E-2</v>
+        <v>4.7411064709362995E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5235,20 +5235,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.47309426688581463</v>
+        <v>0.43105327784091046</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.87416204382262575</v>
+        <v>0.77562200356995481</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.7601409076718485</v>
+        <v>0.67445391614778682</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12171,17 +12171,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9300394974711392E-2</v>
+        <v>4.8843534698537291E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9300394974711392E-2</v>
+        <v>4.8843534698537291E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9300394974711392E-2</v>
+        <v>4.8843534698537291E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.78545263107912E-2</v>
+        <v>4.7411064709362995E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.78545263107912E-2</v>
+        <v>4.7411064709362995E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.78545263107912E-2</v>
+        <v>4.7411064709362995E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12292,14 +12292,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1194841812539131</v>
+        <v>1.0200024806832346</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.1194841812539131</v>
+        <v>1.0200024806832346</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12320,14 +12320,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0791861699443239</v>
+        <v>0.98334544587144512</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0791861699443239</v>
+        <v>0.98334544587144512</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12370,21 +12370,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>97963.057135049923</v>
+        <v>89257.680426661303</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.7601409076718485</v>
+        <v>0.67445391614778682</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12433,27 +12433,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>97963.057135049923</v>
+        <v>89257.680426661303</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.47309426688581463</v>
+        <v>0.43105327784091046</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.5565814904538996</v>
+        <v>0.50712150334224759</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.7601409076718485</v>
+        <v>0.67445391614778682</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>94436.686284567302</v>
+        <v>86049.921660792359</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.45606431823918675</v>
+        <v>0.41556200668148535</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.53654625675198442</v>
+        <v>0.48889647844880629</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.53654625675198442</v>
+        <v>0.48889647844880629</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.53654625675198442</v>
+        <v>0.48889647844880629</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.73277815667707247</v>
+        <v>0.65021526854507061</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12555,27 +12555,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96199.87170980862</v>
+        <v>87653.801043726839</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.46457929256250069</v>
+        <v>0.42330764226119788</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.54656387360294201</v>
+        <v>0.49800899089552697</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.54656387360294201</v>
+        <v>0.49800899089552697</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.54656387360294201</v>
+        <v>0.49800899089552697</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.74645953217446048</v>
+        <v>0.66233459234642877</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7859644D-63F4-40F2-A562-F30C5F491E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BF7E87-5FD7-4A58-BEB2-D9DDA20D9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4162,7 +4173,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7411064709362995E-2</v>
+        <v>4.6514711926649278E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4900,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4941,7 +4952,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>191849.23341616002</v>
+        <v>195369.40283664002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4990,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5173,7 +5184,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.473538743090739</v>
+        <v>20.868070121750147</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5205,7 +5216,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7411064709362995E-2</v>
+        <v>4.6514711926649278E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5235,20 +5246,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.43105327784091046</v>
+        <v>0.42877098106162187</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77562200356995481</v>
+        <v>0.77151531956662278</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67445391614778682</v>
+        <v>0.67088288657967199</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12171,17 +12182,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8843534698537291E-2</v>
+        <v>4.7920099662581192E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8843534698537291E-2</v>
+        <v>4.7920099662581192E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8843534698537291E-2</v>
+        <v>4.7920099662581192E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12222,17 +12233,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7411064709362995E-2</v>
+        <v>4.6514711926649278E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7411064709362995E-2</v>
+        <v>4.6514711926649278E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7411064709362995E-2</v>
+        <v>4.6514711926649278E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,14 +12303,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0200024806832346</v>
+        <v>1.0146018759408462</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0200024806832346</v>
+        <v>1.0146018759408462</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12320,14 +12331,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98334544587144512</v>
+        <v>0.97825960797413203</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98334544587144512</v>
+        <v>0.97825960797413203</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12370,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>89257.680426661303</v>
+        <v>88785.087995431211</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67445391614778682</v>
+        <v>0.67088288657967199</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12433,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>89257.680426661303</v>
+        <v>88785.087995431211</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.43105327784091046</v>
+        <v>0.42877098106162187</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50712150334224759</v>
+        <v>0.50443644830779044</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67445391614778682</v>
+        <v>0.67088288657967199</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12494,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>86049.921660792359</v>
+        <v>85604.873631658062</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41556200668148535</v>
+        <v>0.41341273044174931</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48889647844880629</v>
+        <v>0.48636791816676389</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48889647844880629</v>
+        <v>0.48636791816676389</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48889647844880629</v>
+        <v>0.48636791816676389</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.65021526854507061</v>
+        <v>0.64685237154070452</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12555,27 +12566,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87653.801043726839</v>
+        <v>87194.980813544636</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42330764226119788</v>
+        <v>0.42109185575168562</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.49800899089552697</v>
+        <v>0.49540218323727714</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.49800899089552697</v>
+        <v>0.49540218323727714</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.49800899089552697</v>
+        <v>0.49540218323727714</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66233459234642877</v>
+        <v>0.65886762906018825</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BF7E87-5FD7-4A58-BEB2-D9DDA20D9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6FFF80-1D68-4F24-B64D-11C9406CFD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>176008471024</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>65301</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>14206</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>2827</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4006,7 +4031,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4054,7 +4079,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4102,7 +4127,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4134,7 +4159,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4150,7 +4175,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.03739+0.0109</f>
@@ -4169,11 +4194,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6514711926649278E-2</v>
+        <v>4.6940500096480049E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4218,21 +4243,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4242,7 +4267,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4252,7 +4277,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4263,7 +4288,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4273,7 +4298,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4283,7 +4308,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4294,7 +4319,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4304,7 +4329,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4315,7 +4340,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4323,24 +4348,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4351,7 +4376,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4362,7 +4387,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4373,7 +4398,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4384,7 +4409,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4395,7 +4420,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4406,7 +4431,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4416,31 +4441,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4448,12 +4473,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4464,7 +4489,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4475,7 +4500,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4485,7 +4510,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4496,7 +4521,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4506,25 +4531,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4536,55 +4561,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4592,10 +4617,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4603,18 +4628,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4623,20 +4648,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4654,7 +4679,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4675,7 +4700,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4696,7 +4721,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4714,7 +4739,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4735,7 +4760,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4753,7 +4778,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4771,7 +4796,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4899,62 +4924,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>195369.40283664002</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>193609.31812640003</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4977,16 +5002,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5001,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5011,40 +5036,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5057,29 +5082,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5089,12 +5114,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5104,29 +5129,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69462498271442097</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5134,7 +5159,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5145,26 +5170,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5173,30 +5198,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.868070121750147</v>
+        <v>20.678779906120205</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5205,18 +5230,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.12419023710495804</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6514711926649278E-2</v>
+        <v>4.6940500096480049E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,62 +5251,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42877098106162187</v>
+        <v>0.42969593236953002</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77151531956662278</v>
+        <v>0.77317964419544327</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50443644830779044</v>
-      </c>
-      <c r="G29" s="274">
+        <v>0.50552462631709416</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67088288657967199</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>0.67233012538734205</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5291,25 +5316,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5319,7 +5344,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5329,14 +5354,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5346,7 +5371,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5361,14 +5386,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6321,12 +6346,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6353,16 +6378,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6380,7 +6405,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6413,7 +6438,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6424,7 +6449,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6576,7 +6601,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6627,7 +6652,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6678,7 +6703,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6729,7 +6754,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6780,7 +6805,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6831,7 +6856,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6882,7 +6907,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6933,7 +6958,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6984,7 +7009,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7035,7 +7060,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7086,7 +7111,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7137,7 +7162,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7188,7 +7213,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7239,7 +7264,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7290,7 +7315,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7341,7 +7366,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7392,7 +7417,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7443,7 +7468,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7494,7 +7519,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7647,7 +7672,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7698,7 +7723,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7800,7 +7825,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8004,7 +8029,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8055,7 +8080,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8106,7 +8131,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8157,7 +8182,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8208,7 +8233,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8259,7 +8284,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8277,7 +8302,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8328,7 +8353,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8379,7 +8404,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8430,7 +8455,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8481,7 +8506,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8532,7 +8557,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8583,7 +8608,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8634,7 +8659,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8651,50 +8676,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8703,10 +8728,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8754,167 +8779,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8922,112 +8948,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.24214132762312635</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.29129886506935687</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.24214132762312635</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.29129886506935687</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9590,7 +9806,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10273,6 +10491,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10312,8 +10531,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10331,7 +10550,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10346,7 +10565,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10360,7 +10579,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10370,7 +10589,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10388,10 +10607,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10400,12 +10619,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10415,7 +10635,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10425,8 +10645,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10438,7 +10659,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10456,7 +10677,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10475,32 +10696,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10517,7 +10738,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10528,7 +10749,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10545,7 +10766,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10556,7 +10777,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10573,7 +10794,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10584,7 +10805,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10601,7 +10822,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10612,7 +10833,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10629,7 +10850,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10639,7 +10860,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10661,7 +10882,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10683,7 +10904,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10704,7 +10925,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10729,7 +10950,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10756,7 +10977,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10777,7 +10998,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10794,7 +11015,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10806,13 +11027,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10834,7 +11055,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10854,7 +11075,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10863,7 +11084,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10883,7 +11104,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10896,7 +11117,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10916,7 +11137,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10962,7 +11183,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10971,7 +11192,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10987,7 +11208,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10997,7 +11218,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11014,7 +11235,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11024,7 +11245,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11041,7 +11262,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11051,7 +11272,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11071,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11081,7 +11302,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11098,7 +11319,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11108,7 +11329,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11134,7 +11355,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11161,7 +11382,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11188,7 +11409,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11209,7 +11430,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11230,7 +11451,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11251,7 +11472,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11272,7 +11493,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11289,7 +11510,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11307,7 +11528,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11326,7 +11547,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11345,7 +11566,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11362,7 +11583,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11375,7 +11596,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11392,7 +11613,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11405,7 +11626,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11422,7 +11643,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11449,7 +11670,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11465,14 +11686,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11489,7 +11710,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11519,7 +11740,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11530,14 +11751,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11545,30 +11766,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11585,11 +11806,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11599,7 +11820,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11620,7 +11841,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11641,7 +11862,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11662,7 +11883,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11677,7 +11898,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11708,11 +11929,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11722,7 +11943,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11743,7 +11964,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11758,7 +11979,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11780,21 +12001,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11804,23 +12025,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11841,7 +12062,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11871,7 +12092,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11892,7 +12113,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11922,7 +12143,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11952,7 +12173,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11983,7 +12204,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12010,12 +12231,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12045,7 +12266,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12075,7 +12296,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12105,7 +12326,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12126,7 +12347,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12157,7 +12378,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12178,28 +12399,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7920099662581192E-2</v>
+        <v>4.8358752525047892E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7920099662581192E-2</v>
+        <v>4.8358752525047892E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7920099662581192E-2</v>
+        <v>4.8358752525047892E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12229,21 +12450,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6514711926649278E-2</v>
+        <v>4.6940500096480049E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6514711926649278E-2</v>
+        <v>4.6940500096480049E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6514711926649278E-2</v>
+        <v>4.6940500096480049E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12260,29 +12481,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12299,24 +12520,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0146018759408462</v>
+        <v>1.0167905906011387</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0146018759408462</v>
+        <v>1.0167905906011387</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12327,18 +12548,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97825960797413203</v>
+        <v>0.980312447557799</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97825960797413203</v>
+        <v>0.980312447557799</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12357,51 +12578,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88785.087995431211</v>
+        <v>88976.616543050695</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50443644830779044</v>
+        <v>0.50552462631709416</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50443644830779044</v>
+        <v>0.50552462631709416</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67088288657967199</v>
+        <v>0.67233012538734205</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12419,7 +12640,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12440,31 +12661,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>88785.087995431211</v>
+        <v>88976.616543050695</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42877098106162187</v>
+        <v>0.42969593236953002</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50443644830779044</v>
+        <v>0.50552462631709416</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50443644830779044</v>
+        <v>0.50552462631709416</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50443644830779044</v>
+        <v>0.50552462631709416</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67088288657967199</v>
+        <v>0.67233012538734205</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12474,58 +12695,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85604.873631658062</v>
+        <v>85784.512115873717</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41341273044174931</v>
+        <v>0.41428026091170311</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48636791816676389</v>
+        <v>0.48738854224906253</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48636791816676389</v>
+        <v>0.48738854224906253</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48636791816676389</v>
+        <v>0.48738854224906253</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64685237154070452</v>
+        <v>0.64820976598105917</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12535,58 +12756,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87194.980813544636</v>
+        <v>87380.564329462213</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42109185575168562</v>
+        <v>0.42198809664061654</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.49540218323727714</v>
+        <v>0.49645658428307837</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.49540218323727714</v>
+        <v>0.49645658428307837</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.49540218323727714</v>
+        <v>0.49645658428307837</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.65886762906018825</v>
+        <v>0.66026994568420061</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12595,7 +12816,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12604,6 +12825,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6FFF80-1D68-4F24-B64D-11C9406CFD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E80340C-960C-427A-A36E-8BA2752E4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.69462498271442097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15111319129019563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0071588890425386E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12419023710495804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>176008471024</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>2827</v>
@@ -4047,7 +3210,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4143,7 +3306,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4175,7 +3338,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.03739+0.0109</f>
@@ -4194,11 +3357,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6940500096480049E-2</v>
+        <v>4.6936109368006386E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4243,13 +3406,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4308,7 +3471,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4319,7 +3482,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4420,7 +3583,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4431,7 +3594,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4591,7 +3754,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4609,7 +3772,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4617,10 +3780,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4630,16 +3793,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4648,10 +3811,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4700,7 +3863,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4721,7 +3884,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4739,7 +3902,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4778,7 +3941,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4796,7 +3959,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4882,8 +4045,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4924,13 +4087,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4939,47 +4102,47 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>193609.31812640003</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5002,16 +4165,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5026,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5036,40 +4199,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5082,29 +4245,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5114,12 +4277,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5127,9 +4290,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5137,59 +4300,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.69462498271442097</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.15111319129019563</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.15426182599538343</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5198,30 +4361,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.678779906120205</v>
+        <v>20.680714342292205</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5230,18 +4393,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.12419023710495804</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6940500096480049E-2</v>
+        <v>4.6936109368006386E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5251,62 +4414,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42969593236953002</v>
+        <v>0.42964647022713554</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77317964419544327</v>
+        <v>0.77309064376798553</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50552462631709416</v>
-      </c>
-      <c r="G29" s="278">
+        <v>0.50546643556133597</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67233012538734205</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>0.67225273371129179</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5316,7 +4479,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5327,14 +4490,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5344,7 +4507,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5354,14 +4517,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5371,7 +4534,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5386,14 +4549,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6337,7 +5500,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6351,7 +5513,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6378,16 +5540,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6405,7 +5567,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6438,7 +5600,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6805,7 +5967,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6856,7 +6018,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6907,7 +6069,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6958,7 +6120,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7060,7 +6222,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7213,7 +6375,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7723,7 +6885,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8233,7 +7395,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8284,7 +7446,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8353,7 +7515,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8557,7 +7719,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8659,7 +7821,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8677,14 +7839,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8728,7 +7890,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8779,7 +7941,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8830,7 +7992,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8881,7 +8043,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8898,7 +8060,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9098,7 +8260,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9148,7 +8310,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9198,7 +8360,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10702,7 +9864,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10860,7 +10022,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11272,7 +10434,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11740,7 +10902,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11754,11 +10916,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11769,11 +10931,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11785,11 +10947,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11806,7 +10968,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11883,7 +11045,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11929,7 +11091,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11964,7 +11126,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12003,19 +11165,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12025,18 +11187,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12113,7 +11275,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12143,7 +11305,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12173,7 +11335,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12236,7 +11398,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12266,7 +11428,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12347,7 +11509,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12378,7 +11540,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12399,28 +11561,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8358752525047892E-2</v>
+        <v>4.835422913583759E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8358752525047892E-2</v>
+        <v>4.835422913583759E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8358752525047892E-2</v>
+        <v>4.835422913583759E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12450,21 +11612,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6940500096480049E-2</v>
+        <v>4.6936109368006386E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6940500096480049E-2</v>
+        <v>4.6936109368006386E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6940500096480049E-2</v>
+        <v>4.6936109368006386E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12486,24 +11648,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12520,24 +11682,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0167905906011387</v>
+        <v>1.0166735482062983</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0167905906011387</v>
+        <v>1.0166735482062983</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12548,18 +11710,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.980312447557799</v>
+        <v>0.98020019652408763</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.980312447557799</v>
+        <v>0.98020019652408763</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12578,14 +11740,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12602,21 +11764,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88976.616543050695</v>
+        <v>88966.374477101956</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50552462631709416</v>
+        <v>0.50546643556133597</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50552462631709416</v>
+        <v>0.50546643556133597</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67233012538734205</v>
+        <v>0.67225273371129179</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12665,27 +11827,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>88976.616543050695</v>
+        <v>88966.374477101956</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42969593236953002</v>
+        <v>0.42964647022713554</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50552462631709416</v>
+        <v>0.50546643556133597</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50552462631709416</v>
+        <v>0.50546643556133597</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50552462631709416</v>
+        <v>0.50546643556133597</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67233012538734205</v>
+        <v>0.67225273371129179</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12695,21 +11857,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12722,31 +11884,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85784.512115873717</v>
+        <v>85774.689329082204</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41428026091170311</v>
+        <v>0.41423282359959979</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48738854224906253</v>
+        <v>0.48733273364658802</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48738854224906253</v>
+        <v>0.48733273364658802</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48738854224906253</v>
+        <v>0.48733273364658802</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64820976598105917</v>
+        <v>0.64813554248581084</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12756,21 +11918,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12783,31 +11945,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87380.564329462213</v>
+        <v>87370.53190309208</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42198809664061654</v>
+        <v>0.42193964691336766</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.49645658428307837</v>
+        <v>0.496399584603962</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.49645658428307837</v>
+        <v>0.496399584603962</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.49645658428307837</v>
+        <v>0.496399584603962</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66026994568420061</v>
+        <v>0.66019413809855132</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12816,7 +11978,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E80340C-960C-427A-A36E-8BA2752E4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70390B4-5102-4D80-8500-51D74A63AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>176008471024</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>2827</v>
@@ -3176,9 +3196,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3194,7 +3214,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3210,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3225,10 +3245,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3240,9 +3261,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3289,10 +3310,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3306,9 +3328,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3322,7 +3344,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3338,7 +3360,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.03739+0.0109</f>
@@ -3357,11 +3379,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6936109368006386E-2</v>
+        <v>4.7363761869045569E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3406,13 +3428,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3430,7 +3452,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3440,7 +3462,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3471,7 +3493,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3482,7 +3504,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3516,7 +3538,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3583,7 +3605,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3594,7 +3616,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3641,7 +3663,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3754,7 +3776,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3772,7 +3794,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3780,10 +3802,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3791,7 +3813,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3799,10 +3821,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3824,7 +3846,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3863,7 +3885,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3884,7 +3906,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3902,7 +3924,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3941,7 +3963,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3959,7 +3981,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3982,28 +4004,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4045,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4087,7 +4114,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4099,15 +4126,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4127,7 +4154,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4140,7 +4167,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>193609.31812640003</v>
+        <v>191849.23341616002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4174,7 +4201,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4189,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4199,40 +4226,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4245,29 +4272,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4277,12 +4304,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4292,7 +4319,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4300,21 +4327,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4322,10 +4349,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4333,58 +4360,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.15426182599538343</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.680714342292205</v>
+        <v>20.493985947782264</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4393,18 +4420,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6936109368006386E-2</v>
+        <v>4.7363761869045569E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4414,40 +4441,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42964647022713554</v>
+        <v>0.43052317835912396</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>0.77309064376798553</v>
+        <v>0.77466816133445648</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67225273371129179</v>
+        <v>0.67362448811691877</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4455,21 +4482,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4479,25 +4506,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4507,7 +4534,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4517,14 +4544,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4534,7 +4561,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4549,14 +4576,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5456,27 +5483,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5508,12 +5535,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5540,16 +5567,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5567,7 +5594,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5600,7 +5627,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5611,7 +5638,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5967,7 +5994,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6018,7 +6045,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6069,7 +6096,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6120,7 +6147,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6222,7 +6249,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6375,7 +6402,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6630,7 +6657,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6681,7 +6708,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6735,15 +6762,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6783,50 +6810,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6834,50 +6861,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6885,101 +6912,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6987,101 +7014,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7089,50 +7116,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7140,50 +7167,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7191,50 +7218,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7242,272 +7269,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.69462498271442097</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70592383638928069</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.15111319129019563</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14964739069111424</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.69462498271442097</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70592383638928069</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7515,50 +7542,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.15111319129019563</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14964739069111424</v>
+        <f t="shared" si="37"/>
+        <v>3.258110014104372E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7566,50 +7593,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7617,50 +7644,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.0071588890425386E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.258110014104372E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7668,221 +7695,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.12419023710495804</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.11184767277856135</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.12419023710495804</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.11184767277856135</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7890,522 +7917,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.24214132762312635</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.29129886506935687</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.24214132762312635</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.29129886506935687</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8965,12 +8896,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9652,27 +9579,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9864,7 +9794,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9911,7 +9841,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9939,7 +9869,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10022,7 +9952,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10044,7 +9974,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10112,7 +10042,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10434,7 +10364,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10571,7 +10501,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10902,7 +10832,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10968,7 +10898,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11003,7 +10933,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11024,7 +10954,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11045,7 +10975,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11060,7 +10990,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11091,7 +11021,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11105,7 +11035,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11126,7 +11056,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11141,7 +11071,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11163,7 +11093,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11171,11 +11101,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11203,7 +11133,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11275,7 +11205,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11305,7 +11235,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11335,7 +11265,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11393,12 +11323,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11428,7 +11358,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11458,7 +11388,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11509,7 +11439,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11540,7 +11470,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11561,28 +11491,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.835422913583759E-2</v>
+        <v>4.8794802658104396E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.835422913583759E-2</v>
+        <v>4.8794802658104396E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.835422913583759E-2</v>
+        <v>4.8794802658104396E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11612,21 +11542,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6936109368006386E-2</v>
+        <v>4.7363761869045569E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6936109368006386E-2</v>
+        <v>4.7363761869045569E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6936109368006386E-2</v>
+        <v>4.7363761869045569E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11643,27 +11573,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11682,24 +11612,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0166735482062983</v>
+        <v>1.0187481049152567</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0166735482062983</v>
+        <v>1.0187481049152567</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11710,18 +11640,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98020019652408763</v>
+        <v>0.98214253901901949</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98020019652408763</v>
+        <v>0.98214253901901949</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11740,14 +11670,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11760,31 +11690,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88966.374477101956</v>
+        <v>89147.913368684996</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67225273371129179</v>
+        <v>0.67362448811691877</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11802,7 +11732,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11827,27 +11757,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>88966.374477101956</v>
+        <v>89147.913368684996</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42964647022713554</v>
+        <v>0.43052317835912396</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50546643556133597</v>
+        <v>0.50649785689308702</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67225273371129179</v>
+        <v>0.67362448811691877</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11857,21 +11787,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11884,31 +11814,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85774.689329082204</v>
+        <v>85944.658509525398</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41423282359959979</v>
+        <v>0.415053657974992</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48733273364658802</v>
+        <v>0.48829842114704941</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48733273364658802</v>
+        <v>0.48829842114704941</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48733273364658802</v>
+        <v>0.48829842114704941</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64813554248581084</v>
+        <v>0.64941987318795735</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11918,21 +11848,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11945,31 +11875,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87370.53190309208</v>
+        <v>87546.285939105204</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42193964691336766</v>
+        <v>0.42278841816705798</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.496399584603962</v>
+        <v>0.49739813902006824</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.496399584603962</v>
+        <v>0.49739813902006824</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.496399584603962</v>
+        <v>0.49739813902006824</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.66019413809855132</v>
+        <v>0.66152218065243806</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11978,7 +11908,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70390B4-5102-4D80-8500-51D74A63AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{096B1D00-95D4-4A8F-829F-4F837E2551DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>176008471024</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>271</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>271</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,400 +3048,404 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>94009</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>92170</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>65301</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>65065</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>14206</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>13793</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>2827</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>3003</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.03739+0.0109</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7363761869045569E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>4.6895443232854203E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3504,7 +3516,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3532,7 +3544,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3544,7 +3556,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3563,8 +3575,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3616,7 +3628,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3632,7 +3644,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3644,7 +3656,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3657,7 +3669,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3705,14 +3717,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3736,7 +3748,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3766,19 +3778,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3794,20 +3806,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3837,10 +3849,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3852,12 +3864,12 @@
         <f>C25</f>
         <v>94009</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>94009</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>94009</v>
       </c>
@@ -3870,75 +3882,75 @@
         <f>C26</f>
         <v>65301</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>65301</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>65301</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>14206</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>14206</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>14206</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>2827</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>2827</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3951,12 +3963,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3969,12 +3981,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -3983,16 +3995,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>4.829E-2</v>
       </c>
@@ -4073,7 +4085,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4125,11 +4137,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4167,7 +4179,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>191849.23341616002</v>
+        <v>193609.31812640003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4177,11 +4189,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4203,11 +4215,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -4215,8 +4227,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4225,10 +4237,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4236,7 +4248,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4244,13 +4256,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4259,12 +4271,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4274,7 +4286,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4285,7 +4297,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4293,13 +4305,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4309,49 +4321,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4359,79 +4371,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.493985947782264</v>
+        <v>20.698647955166091</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.97067227017832514</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7363761869045569E-2</v>
+        <v>4.6895443232854203E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4448,10 +4460,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4459,22 +4471,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.43052317835912396</v>
-      </c>
-      <c r="D29" s="129">
+        <v>0.42918845079347873</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>0.77466816133445648</v>
+        <v>0.77226649981857343</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50649785689308702</v>
+        <v>0.50492758916879854</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67362448811691877</v>
+        <v>0.67153608679875954</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4482,23 +4494,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4506,9 +4518,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4516,17 +4528,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4534,26 +4546,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4561,9 +4573,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4576,16 +4588,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5537,10 +5549,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5566,16 +5578,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5589,11 +5601,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5618,7 +5630,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5626,7 +5638,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5690,47 +5702,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>94009</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>92170</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5792,47 +5804,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>65301</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>65065</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5843,47 +5855,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>28708</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>27105</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5894,47 +5906,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14206</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13793</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5945,47 +5957,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5994,49 +6006,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199" t="str">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="199" t="str">
+      <c r="D12" s="198" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6044,50 +6056,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.14442877291960507</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6095,50 +6107,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>14502</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>13312</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6146,50 +6158,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.9393028846153841E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6200,47 +6212,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6249,49 +6261,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>2827</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3003</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6302,47 +6314,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6353,47 +6365,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6402,49 +6414,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6455,47 +6467,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6506,47 +6518,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>11675</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10309</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6557,47 +6569,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>8.3885754583921016E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6608,7 +6620,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8756.25</v>
       </c>
@@ -6656,50 +6668,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13250557765059656</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6816,43 +6828,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6867,43 +6879,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6912,49 +6924,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6969,43 +6981,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7020,43 +7032,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7122,43 +7134,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7173,43 +7185,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7224,43 +7236,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7322,47 +7334,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7371,7 +7383,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7391,47 +7403,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.70592383638928069</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7440,49 +7452,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.14964739069111424</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7493,47 +7505,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7544,47 +7556,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>3.258110014104372E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7595,47 +7607,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7644,49 +7656,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7697,47 +7709,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.11184767277856135</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7746,9 +7758,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7763,50 +7777,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7815,49 +7829,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7866,49 +7880,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7917,49 +7931,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7968,7 +7982,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7985,49 +7999,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8037,47 +8051,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8087,47 +8101,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.24214132762312635</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.29129886506935687</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8137,47 +8151,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8185,149 +8199,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9623,8 +9637,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9660,8 +9674,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9673,8 +9687,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9684,8 +9698,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9772,11 +9786,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9819,7 +9833,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9847,7 +9861,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9875,7 +9889,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9903,7 +9917,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9916,7 +9930,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9931,7 +9945,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9958,7 +9972,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9980,7 +9994,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10002,7 +10016,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10023,7 +10037,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10031,7 +10045,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10048,7 +10062,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10056,7 +10070,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10075,7 +10089,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10096,7 +10110,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10261,7 +10275,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10290,7 +10304,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10316,7 +10330,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10343,7 +10357,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10370,7 +10384,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10386,7 +10400,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10400,7 +10414,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10427,7 +10441,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10435,7 +10449,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10453,7 +10467,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10461,7 +10475,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10480,7 +10494,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10488,7 +10502,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10507,7 +10521,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10528,7 +10542,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10549,7 +10563,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10570,7 +10584,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10591,7 +10605,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10737,8 +10751,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10764,8 +10778,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10835,7 +10849,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10935,7 +10949,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10943,7 +10957,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10974,11 +10988,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11055,12 +11069,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11139,17 +11153,17 @@
         <f>Data!C6</f>
         <v>94009</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>94009</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>94009</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11160,23 +11174,23 @@
         <f>Data!C8</f>
         <v>65301</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>65301</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>65301</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.69462498271442097</v>
       </c>
@@ -11186,48 +11200,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>28708</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>28708</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>28708</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14206</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>14206</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>14206</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.15111319129019563</v>
       </c>
@@ -11241,54 +11255,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>14502</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>14502</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>14502</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.15426182599538343</v>
       </c>
@@ -11302,55 +11316,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>2827</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>2827</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>2827</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
@@ -11358,29 +11372,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11390,27 +11404,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>11675</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>11675</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>11675</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.12419023710495804</v>
       </c>
@@ -11420,49 +11434,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>8756.25</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
@@ -11472,69 +11486,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8794802658104396E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>4.8312334320871134E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8794802658104396E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.8312334320871134E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8794802658104396E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>4.8312334320871134E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.97067227017832514</v>
       </c>
@@ -11542,23 +11556,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7363761869045569E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>4.6895443232854203E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7363761869045569E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>4.6895443232854203E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7363761869045569E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>4.6895443232854203E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11580,7 +11594,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11603,27 +11617,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0187481049152567</v>
+        <v>1.0155897356417098</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0187481049152567</v>
+        <v>1.0155897356417098</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11631,27 +11645,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98214253901901949</v>
+        <v>0.97916074681702558</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98214253901901949</v>
+        <v>0.97916074681702558</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11665,25 +11679,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11694,21 +11708,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>89147.913368684996</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>88871.532947434651</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50649785689308702</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>0.50492758916879854</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50649785689308702</v>
-      </c>
-      <c r="I97" s="123">
+        <v>0.50492758916879854</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67362448811691877</v>
+        <v>0.67153608679875954</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11720,14 +11734,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11738,17 +11752,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11757,27 +11771,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>89147.913368684996</v>
+        <v>88871.532947434651</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.43052317835912396</v>
+        <v>0.42918845079347873</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50649785689308702</v>
+        <v>0.50492758916879854</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50649785689308702</v>
+        <v>0.50492758916879854</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50649785689308702</v>
+        <v>0.50492758916879854</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67362448811691877</v>
+        <v>0.67153608679875954</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11789,25 +11803,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11818,27 +11832,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85944.658509525398</v>
+        <v>85683.729874051875</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.415053657974992</v>
-      </c>
-      <c r="E103" s="123">
+        <v>0.41379355191951556</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48829842114704941</v>
+        <v>0.48681594343472417</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48829842114704941</v>
-      </c>
-      <c r="H103" s="123">
+        <v>0.48681594343472417</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48829842114704941</v>
+        <v>0.48681594343472417</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64941987318795735</v>
+        <v>0.64744822952447667</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11850,25 +11864,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11879,27 +11893,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87546.285939105204</v>
+        <v>87277.631410743255</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42278841816705798</v>
-      </c>
-      <c r="E106" s="123">
+        <v>0.42149100135649714</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>0.49739813902006824</v>
+        <v>0.49587176630176133</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.49739813902006824</v>
-      </c>
-      <c r="H106" s="123">
+        <v>0.49587176630176133</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>0.49739813902006824</v>
-      </c>
-      <c r="I106" s="123">
+        <v>0.49587176630176133</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>0.66152218065243806</v>
+        <v>0.6594921581616181</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11910,14 +11924,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{096B1D00-95D4-4A8F-829F-4F837E2551DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DDD324-BDFB-473B-A873-98CD8CD4E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,9 +3256,7 @@
       <c r="B37" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3322,9 +3320,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3340,9 +3336,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3395,7 +3389,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6895443232854203E-2</v>
+        <v>4.6893979656696318E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4228,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4411,7 +4405,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.698647955166091</v>
+        <v>20.699293966612963</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4443,7 +4437,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6895443232854203E-2</v>
+        <v>4.6893979656696318E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4473,20 +4467,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42918845079347873</v>
+        <v>0.42917196968071841</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>0.77226649981857343</v>
+        <v>0.77223684428790595</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67153608679875954</v>
+        <v>0.67151029938078788</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11509,17 +11503,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8312334320871134E-2</v>
+        <v>4.8310826524467707E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8312334320871134E-2</v>
+        <v>4.8310826524467707E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8312334320871134E-2</v>
+        <v>4.8310826524467707E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11560,17 +11554,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6895443232854203E-2</v>
+        <v>4.6893979656696318E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6895443232854203E-2</v>
+        <v>4.6893979656696318E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6895443232854203E-2</v>
+        <v>4.6893979656696318E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11630,14 +11624,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0155897356417098</v>
+        <v>1.0155507363421703</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0155897356417098</v>
+        <v>1.0155507363421703</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11658,14 +11652,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97916074681702558</v>
+        <v>0.97912334367233256</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97916074681702558</v>
+        <v>0.97912334367233256</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11708,21 +11702,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88871.532947434651</v>
+        <v>88868.120223366743</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67153608679875954</v>
+        <v>0.67151029938078788</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11771,27 +11765,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>88871.532947434651</v>
+        <v>88868.120223366743</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42918845079347873</v>
+        <v>0.42917196968071841</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50492758916879854</v>
+        <v>0.50490819962437461</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67153608679875954</v>
+        <v>0.67151029938078788</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11832,27 +11826,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85683.729874051875</v>
+        <v>85680.456825212095</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41379355191951556</v>
+        <v>0.41377774534215239</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48681594343472417</v>
+        <v>0.48679734746135578</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.48681594343472417</v>
+        <v>0.48679734746135578</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48681594343472417</v>
+        <v>0.48679734746135578</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64744822952447667</v>
+        <v>0.64742349752833728</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11893,27 +11887,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87277.631410743255</v>
+        <v>87274.288524289412</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.42149100135649714</v>
+        <v>0.42147485751143543</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>0.49587176630176133</v>
+        <v>0.49585277354286517</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.49587176630176133</v>
+        <v>0.49585277354286517</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>0.49587176630176133</v>
+        <v>0.49585277354286517</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>0.6594921581616181</v>
+        <v>0.65946689845456263</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DDD324-BDFB-473B-A873-98CD8CD4E06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565CC5B1-D6D0-44C7-AA90-F6B1551F8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>176008471024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>176008471024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,792 +3039,793 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>94009</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>92170</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>65301</v>
+      </c>
+      <c r="D26" s="148">
+        <v>65065</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>14206</v>
+      </c>
+      <c r="D27" s="148">
+        <v>13793</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>65301</v>
-      </c>
-      <c r="D26" s="149">
-        <v>65065</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>2827</v>
+      </c>
+      <c r="D29" s="148">
+        <v>3003</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>14206</v>
-      </c>
-      <c r="D27" s="149">
-        <v>13793</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>2827</v>
-      </c>
-      <c r="D29" s="149">
-        <v>3003</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.03739+0.0109</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6893979656696318E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>4.7751953708168898E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3839,166 +3834,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>94009</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>94009</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>94009</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>65301</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>65301</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>65301</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>14206</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>14206</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>14206</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>2827</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>2827</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>4.829E-2</v>
       </c>
@@ -4011,32 +4006,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,13 +4090,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4112,82 +4107,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0788.HK : 中国铁塔</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>193609.31812640003</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>190089.14870592</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4198,31 +4193,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4231,280 +4226,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.699293966612963</v>
+        <v>20.327383380175142</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.97067227017832514</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6893979656696318E-2</v>
+        <v>4.7751953708168898E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42917196968071841</v>
-      </c>
-      <c r="D29" s="128">
+        <v>0.43089019054492811</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.77223684428790595</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>0.77532855006485613</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="G29" s="286">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67151029938078788</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>0.67419873918683149</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4512,9 +4507,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4522,17 +4517,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4540,26 +4535,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4567,9 +4562,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4582,16 +4577,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5543,10 +5538,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5572,59 +5567,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>14502</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5632,19 +5627,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5693,928 +5688,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>94009</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>92170</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>1.995226212433554E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>65301</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>65065</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>28708</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>27105</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14206</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13793</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198" t="str">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="198" t="str">
+      <c r="D12" s="196" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.14442877291960507</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>14502</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>13312</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.9393028846153841E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>2827</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3003</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>11675</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10309</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>8.3885754583921016E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8756.25</v>
       </c>
@@ -6658,63 +6653,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13250557765059656</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6760,11 +6755,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6811,266 +6806,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7117,165 +7112,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7321,63 +7316,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7390,372 +7385,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.70592383638928069</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.14964739069111424</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>3.258110014104372E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.11184767277856135</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7767,216 +7762,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7992,350 +7987,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.24214132762312635</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.29129886506935687</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9614,7 +9609,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9632,7 +9627,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9650,25 +9645,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9676,12 +9671,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9689,28 +9684,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9723,7 +9718,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9732,16 +9727,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9749,7 +9744,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9759,287 +9754,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10050,21 +10045,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10077,45 +10072,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10123,17 +10118,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10143,19 +10138,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10165,17 +10160,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10184,7 +10179,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10194,17 +10189,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10217,7 +10212,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10227,17 +10222,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10264,12 +10259,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10279,171 +10274,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10451,25 +10446,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10477,26 +10472,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10504,113 +10499,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10618,17 +10613,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10638,16 +10633,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10657,16 +10652,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10676,14 +10671,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10696,7 +10691,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10706,14 +10701,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10726,13 +10721,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10740,12 +10735,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10756,63 +10751,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10820,45 +10815,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10866,61 +10861,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10934,35 +10929,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10976,29 +10971,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11012,9 +11007,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11022,28 +11017,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11057,29 +11052,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11093,29 +11088,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11125,66 +11120,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>94009</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>94009</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>94009</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>65301</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>65301</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.69462498271442097</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>65301</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.69462498271442097</v>
       </c>
@@ -11192,50 +11187,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>28708</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>28708</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>28708</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14206</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>14206</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.15111319129019563</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>14206</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.15111319129019563</v>
       </c>
@@ -11243,60 +11238,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>14502</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>14502</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.15426182599538343</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>14502</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.15426182599538343</v>
       </c>
@@ -11304,61 +11299,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>2827</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>2827</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>2827</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>3.0071588890425386E-2</v>
       </c>
@@ -11366,59 +11361,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>11675</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>11675</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.12419023710495804</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>11675</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.12419023710495804</v>
       </c>
@@ -11426,184 +11421,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>8756.25</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>9.3142677828718531E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>8756.25</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>9.3142677828718531E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.9749025993220654E-2</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8310826524467707E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>4.9194723260608066E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8310826524467707E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.9194723260608066E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8310826524467707E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>4.9194723260608066E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>4.829E-2</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.97067227017832514</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>4.829E-2</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.97067227017832514</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6893979656696318E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>4.7751953708168898E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6893979656696318E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>4.7751953708168898E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6893979656696318E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>4.7751953708168898E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11611,55 +11606,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0155507363421703</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>1.0196165667950416</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0155507363421703</v>
+        <v>1.0196165667950416</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97912334367233256</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>0.98292733834872648</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97912334367233256</v>
+        <v>0.98292733834872648</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11669,123 +11664,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88868.120223366743</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>89223.910137709201</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="I97" s="122">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67151029938078788</v>
+        <v>0.67419873918683149</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>88868.120223366743</v>
-      </c>
-      <c r="D100" s="109">
+        <v>89223.910137709201</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42917196968071841</v>
-      </c>
-      <c r="E100" s="109">
+        <v>0.43089019054492811</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="F100" s="109">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="H100" s="109">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50490819962437461</v>
-      </c>
-      <c r="I100" s="109">
+        <v>0.50692963593520957</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67151029938078788</v>
+        <v>0.67419873918683149</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11795,58 +11790,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85680.456825212095</v>
-      </c>
-      <c r="D103" s="109">
+        <v>86013.334193258168</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41377774534215239</v>
-      </c>
-      <c r="E103" s="122">
+        <v>0.41538531434830878</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48679734746135578</v>
-      </c>
-      <c r="F103" s="109">
+        <v>0.48868860511565743</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.48679734746135578</v>
-      </c>
-      <c r="H103" s="122">
+        <v>0.48868860511565743</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48679734746135578</v>
-      </c>
-      <c r="I103" s="109">
+        <v>0.48868860511565743</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64742349752833728</v>
+        <v>0.64993880426051365</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11856,58 +11851,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87274.288524289412</v>
-      </c>
-      <c r="D106" s="109">
+        <v>87618.62216548367</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.42147485751143543</v>
-      </c>
-      <c r="E106" s="122">
+        <v>0.42313775244661844</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.49585277354286517</v>
-      </c>
-      <c r="F106" s="109">
+        <v>0.49780912052543347</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.49585277354286517</v>
-      </c>
-      <c r="H106" s="122">
+        <v>0.49780912052543347</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.49585277354286517</v>
-      </c>
-      <c r="I106" s="122">
+        <v>0.49780912052543347</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.65946689845456263</v>
+        <v>0.66206877172367262</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11916,15 +11911,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{565CC5B1-D6D0-44C7-AA90-F6B1551F8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76E319A-3096-4767-B036-0FC98E5FA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3383,7 +3400,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7751953708168898E-2</v>
+        <v>4.6857500151793165E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3816,11 +3833,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3834,10 +3851,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4059,8 +4076,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4073,8 +4093,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4117,60 +4137,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>190089.14870592</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>193609.31812640003</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4193,11 +4213,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4217,7 +4237,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4338,7 +4358,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4350,20 +4370,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.15426182599538343</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4372,12 +4392,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.15426182599538343</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4388,10 +4408,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>3.0071588890425386E-2</v>
       </c>
@@ -4400,7 +4420,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.327383380175142</v>
+        <v>20.715408782668042</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4432,7 +4452,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7751953708168898E-2</v>
+        <v>4.6857500151793165E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4451,10 +4471,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4462,22 +4482,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.43089019054492811</v>
+        <v>0.42876124739580795</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.77532855006485613</v>
+        <v>0.77149780515304855</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50692963593520957</v>
-      </c>
-      <c r="G29" s="285">
+        <v>0.50442499693624465</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67419873918683149</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>0.67086765665482484</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5508,7 +5528,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7749,7 +7769,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9676,7 +9696,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10723,7 +10743,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10740,7 +10760,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10849,11 +10869,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10864,11 +10884,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10880,11 +10900,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11098,19 +11118,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11120,18 +11140,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11498,17 +11518,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9194723260608066E-2</v>
+        <v>4.8273244833897257E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9194723260608066E-2</v>
+        <v>4.8273244833897257E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9194723260608066E-2</v>
+        <v>4.8273244833897257E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11549,17 +11569,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7751953708168898E-2</v>
+        <v>4.6857500151793165E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7751953708168898E-2</v>
+        <v>4.6857500151793165E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7751953708168898E-2</v>
+        <v>4.6857500151793165E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11590,15 +11610,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11619,14 +11639,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0196165667950416</v>
+        <v>1.0145788431423808</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0196165667950416</v>
+        <v>1.0145788431423808</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11647,14 +11667,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98292733834872648</v>
+        <v>0.97819122401892622</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.98292733834872648</v>
+        <v>0.97819122401892622</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11697,21 +11717,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>89223.910137709201</v>
+        <v>88783.072457034301</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50692963593520957</v>
+        <v>0.50442499693624465</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50692963593520957</v>
+        <v>0.50442499693624465</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67419873918683149</v>
+        <v>0.67086765665482484</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11760,27 +11780,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>89223.910137709201</v>
+        <v>88783.072457034301</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.43089019054492811</v>
+        <v>0.42876124739580795</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50692963593520957</v>
+        <v>0.50442499693624465</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.50692963593520957</v>
+        <v>0.50442499693624465</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50692963593520957</v>
+        <v>0.50442499693624465</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67419873918683149</v>
+        <v>0.67086765665482484</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11821,27 +11841,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>86013.334193258168</v>
+        <v>85598.88953521158</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41538531434830878</v>
+        <v>0.41338383136689272</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48868860511565743</v>
+        <v>0.48633391925516789</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.48868860511565743</v>
+        <v>0.48633391925516789</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48868860511565743</v>
+        <v>0.48633391925516789</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64993880426051365</v>
+        <v>0.64680715417382195</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11882,27 +11902,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87618.62216548367</v>
+        <v>87190.980996122933</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.42313775244661844</v>
+        <v>0.42107253938135036</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.49780912052543347</v>
+        <v>0.49537945809570627</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.49780912052543347</v>
+        <v>0.49537945809570627</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.49780912052543347</v>
+        <v>0.49537945809570627</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.66206877172367262</v>
+        <v>0.65883740541432334</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76E319A-3096-4767-B036-0FC98E5FA277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05868EAF-AC8F-4D7F-A356-19395D90A45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6857500151793165E-2</v>
+        <v>4.5947562669714288E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>193609.31812640003</v>
+        <v>197129.48754688</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4237,7 +4237,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.715408782668042</v>
+        <v>21.125653109302586</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6857500151793165E-2</v>
+        <v>4.5947562669714288E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4482,20 +4482,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.42876124739580795</v>
+        <v>0.42616864557203693</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>0.77149780515304855</v>
+        <v>0.7668327692412823</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.67086765665482484</v>
+        <v>0.66681110368807162</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9647,7 +9647,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11518,17 +11518,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8273244833897257E-2</v>
+        <v>4.7335814652738686E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8273244833897257E-2</v>
+        <v>4.7335814652738686E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8273244833897257E-2</v>
+        <v>4.7335814652738686E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6857500151793165E-2</v>
+        <v>4.5947562669714288E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6857500151793165E-2</v>
+        <v>4.5947562669714288E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6857500151793165E-2</v>
+        <v>4.5947562669714288E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11639,14 +11639,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0145788431423808</v>
+        <v>1.0084439627746544</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0145788431423808</v>
+        <v>1.0084439627746544</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11667,14 +11667,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97819122401892622</v>
+        <v>0.97239827569831261</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.97819122401892622</v>
+        <v>0.97239827569831261</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11717,21 +11717,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88783.072457034301</v>
+        <v>88246.225535886115</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.67086765665482484</v>
+        <v>0.66681110368807162</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11758,7 +11758,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11780,27 +11780,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>88783.072457034301</v>
+        <v>88246.225535886115</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.42876124739580795</v>
+        <v>0.42616864557203693</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.50442499693624465</v>
+        <v>0.50137487714357287</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.67086765665482484</v>
+        <v>0.66681110368807162</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11841,27 +11841,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>85598.88953521158</v>
+        <v>85091.96417010545</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.41338383136689272</v>
+        <v>0.41093573010316742</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.48633391925516789</v>
+        <v>0.48345380012137346</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.48633391925516789</v>
+        <v>0.48345380012137346</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.48633391925516789</v>
+        <v>0.48345380012137346</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64680715417382195</v>
+        <v>0.64297669615546249</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11902,27 +11902,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>87190.980996122933</v>
+        <v>86669.094852995782</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.42107253938135036</v>
+        <v>0.41855218783760217</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.49537945809570627</v>
+        <v>0.49241433863247319</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.49537945809570627</v>
+        <v>0.49241433863247319</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.49537945809570627</v>
+        <v>0.49241433863247319</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.65883740541432334</v>
+        <v>0.65489389992176705</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0CA3B48-4897-4A2F-BD22-3173D30D3FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BCD66C-B4D6-4E28-A845-A4242EABF25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5465377468626764E-2</v>
+        <v>4.546252802831937E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4450,7 +4450,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4581,7 +4581,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.349702217871926</v>
+        <v>21.351040346319436</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5465377468626764E-2</v>
+        <v>4.546252802831937E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4700,20 +4700,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.51223105042507155</v>
+        <v>0.4244208883552722</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.82233536610593361</v>
+        <v>0.76368791679749393</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.71507423139646409</v>
+        <v>0.66407644938912525</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11750,17 +11750,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6839060788533893E-2</v>
+        <v>4.6836125255713047E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6839060788533893E-2</v>
+        <v>4.6836125255713047E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6839060788533893E-2</v>
+        <v>4.6836125255713047E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11801,17 +11801,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5465377468626764E-2</v>
+        <v>4.546252802831937E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5465377468626764E-2</v>
+        <v>4.546252802831937E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5465377468626764E-2</v>
+        <v>4.546252802831937E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11864,21 +11864,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91651693978262405</v>
+        <v>1.0043082403747194</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91651693978262405</v>
+        <v>1.0043082403747194</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11899,14 +11899,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.88613997114705723</v>
+        <v>0.96847518837077451</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.88613997114705723</v>
+        <v>0.96847518837077451</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11949,21 +11949,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>106067.06352509916</v>
+        <v>87884.319564775607</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.71507423139646409</v>
+        <v>0.66407644938912525</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12013,23 +12013,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.51223105042507155</v>
+        <v>0.4244208883552722</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.60262476520596653</v>
+        <v>0.49931869218267316</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.71507423139646409</v>
+        <v>0.66407644938912525</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12068,23 +12068,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.49525370295060334</v>
+        <v>0.40927783251584127</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.58265141523600394</v>
+        <v>0.481503332371578</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.58265141523600394</v>
+        <v>0.481503332371578</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.58265141523600394</v>
+        <v>0.481503332371578</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.69137386476234131</v>
+        <v>0.64038264206093176</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12123,23 +12123,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.5037423766878375</v>
+        <v>0.41684936043555676</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.59263809022098524</v>
+        <v>0.49041101227712558</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.59263809022098524</v>
+        <v>0.49041101227712558</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.59263809022098524</v>
+        <v>0.49041101227712558</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.70322404807940275</v>
+        <v>0.65222954572502845</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BCD66C-B4D6-4E28-A845-A4242EABF25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{134BC98A-1CBF-4B31-8B8C-C9BCAAB97D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3613,7 +3614,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.546252802831937E-2</v>
+        <v>4.5063733922807797E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4265,7 +4266,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4288,6 +4289,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4306,8 +4310,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4343,24 +4347,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4370,7 +4377,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
@@ -4399,11 +4406,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>198889.57225711999</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>200649.65696735997</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4426,11 +4433,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4498,10 +4505,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4548,7 +4555,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4638,7 +4645,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.351040346319436</v>
+        <v>21.539987606021377</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4670,7 +4677,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.546252802831937E-2</v>
+        <v>4.5063733922807797E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4689,10 +4696,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4700,22 +4707,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.4244208883552722</v>
+        <v>0.46384712672807532</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.76368791679749393</v>
+        <v>0.85707559931123045</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.49931869218267316</v>
-      </c>
-      <c r="G29" s="312">
+        <v>0.54570250203302983</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.66407644938912525</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>0.74528312983585265</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5697,15 +5704,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5733,7 +5741,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11750,17 +11758,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836125255713047E-2</v>
+        <v>4.6425282051715561E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836125255713047E-2</v>
+        <v>4.6425282051715561E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6836125255713047E-2</v>
+        <v>4.6425282051715561E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11801,17 +11809,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.546252802831937E-2</v>
+        <v>4.5063733922807797E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.546252802831937E-2</v>
+        <v>4.5063733922807797E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.546252802831937E-2</v>
+        <v>4.5063733922807797E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11860,7 +11868,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11871,14 +11879,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0043082403747194</v>
+        <v>1.0976026497008675</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0043082403747194</v>
+        <v>1.0976026497008675</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11899,14 +11907,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.96847518837077451</v>
+        <v>1.058499203697933</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.96847518837077451</v>
+        <v>1.058499203697933</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11949,21 +11957,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>87884.319564775607</v>
+        <v>96048.263016804834</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.49931869218267316</v>
+        <v>0.54570250203302983</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.49931869218267316</v>
+        <v>0.54570250203302983</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.66407644938912525</v>
+        <v>0.74528312983585265</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12013,23 +12021,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.4244208883552722</v>
+        <v>0.46384712672807532</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.49931869218267316</v>
+        <v>0.54570250203302983</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.49931869218267316</v>
+        <v>0.54570250203302983</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.49931869218267316</v>
+        <v>0.54570250203302983</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.66407644938912525</v>
+        <v>0.74528312983585265</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12068,23 +12076,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.40927783251584127</v>
+        <v>0.44732200164882119</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.481503332371578</v>
+        <v>0.52626117841037789</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.481503332371578</v>
+        <v>0.52626117841037789</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.481503332371578</v>
+        <v>0.52626117841037789</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.64038264206093176</v>
+        <v>0.71873150058060564</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12123,23 +12131,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.41684936043555676</v>
+        <v>0.45558456418844828</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.49041101227712558</v>
+        <v>0.53598184022170381</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.49041101227712558</v>
+        <v>0.53598184022170381</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.49041101227712558</v>
+        <v>0.53598184022170381</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.65222954572502845</v>
+        <v>0.73200731520822915</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134BC98A-1CBF-4B31-8B8C-C9BCAAB97D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EE9385-5DD0-4D1E-A9BD-92215DFB3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4347,21 +4347,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4377,40 +4377,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>200649.65696735997</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4433,11 +4433,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4588,7 +4588,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4696,10 +4696,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4707,22 +4707,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.46384712672807532</v>
+        <v>0.50975851299330921</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.85707559931123045</v>
+        <v>0.8849845286995055</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.54570250203302983</v>
-      </c>
-      <c r="G29" s="313">
+        <v>0.59971589763918731</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.74528312983585265</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>0.76955176408652659</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5705,15 +5705,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11086,7 +11086,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11097,11 +11097,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11113,11 +11113,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11872,21 +11872,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0976026497008675</v>
+        <v>1.0489068531952985</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0976026497008675</v>
+        <v>1.0489068531952985</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11907,14 +11907,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.058499203697933</v>
+        <v>1.0128561247883832</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.058499203697933</v>
+        <v>1.0128561247883832</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11957,21 +11957,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>96048.263016804834</v>
+        <v>105555.07819225905</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.54570250203302983</v>
+        <v>0.59971589763918731</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.54570250203302983</v>
+        <v>0.59971589763918731</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.74528312983585265</v>
+        <v>0.76955176408652659</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12021,23 +12021,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.46384712672807532</v>
+        <v>0.50975851299330921</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.54570250203302983</v>
+        <v>0.59971589763918731</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.54570250203302983</v>
+        <v>0.59971589763918731</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.54570250203302983</v>
+        <v>0.59971589763918731</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.74528312983585265</v>
+        <v>0.76955176408652659</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12076,23 +12076,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.44732200164882119</v>
+        <v>0.49223821016655939</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.52626117841037789</v>
+        <v>0.57910377666654045</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.52626117841037789</v>
+        <v>0.57910377666654045</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.52626117841037789</v>
+        <v>0.57910377666654045</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.71873150058060564</v>
+        <v>0.74310241678973621</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12131,23 +12131,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.45558456418844828</v>
+        <v>0.50099836157993427</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.53598184022170381</v>
+        <v>0.58940983715286388</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.53598184022170381</v>
+        <v>0.58940983715286388</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.53598184022170381</v>
+        <v>0.58940983715286388</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.73200731520822915</v>
+        <v>0.7563270904381314</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C174002-C8BC-4896-8228-10769BF6193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A972E63-0982-400E-9E90-68795B29D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5062323383420533E-2</v>
+        <v>4.6306528122933413E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4373,27 +4373,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4403,7 +4403,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
@@ -4432,11 +4432,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>200649.65696735997</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>195369.40283664002</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4459,11 +4459,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>21.54066185001588</v>
+        <v>20.961888302258565</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5062323383420533E-2</v>
+        <v>4.6306528122933413E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4722,10 +4722,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4733,22 +4733,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.51398755660909501</v>
+        <v>0.5168041518187606</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.89398011577116732</v>
+        <v>0.89887902836008104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.6046912430695236</v>
-      </c>
-      <c r="G29" s="313">
+        <v>0.60800488449265955</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.77737401371405856</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>0.78163393770441836</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5731,15 +5731,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11886,17 +11886,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6423828894526883E-2</v>
+        <v>4.7705625828196672E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6423828894526883E-2</v>
+        <v>4.7705625828196672E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6423828894526883E-2</v>
+        <v>4.7705625828196672E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11937,17 +11937,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5062323383420533E-2</v>
+        <v>4.6306528122933413E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5062323383420533E-2</v>
+        <v>4.6306528122933413E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5062323383420533E-2</v>
+        <v>4.6306528122933413E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12007,14 +12007,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0576087634488656</v>
+        <v>1.0634043430081892</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0576087634488656</v>
+        <v>1.0634043430081892</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12035,14 +12035,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0212591112445173</v>
+        <v>1.0267144844091702</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0212591112445173</v>
+        <v>1.0267144844091702</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12085,21 +12085,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>106430.78113426878</v>
+        <v>107014.01009467673</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.6046912430695236</v>
+        <v>0.60800488449265955</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.6046912430695236</v>
+        <v>0.60800488449265955</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.77737401371405856</v>
+        <v>0.78163393770441836</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12149,23 +12149,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.51398755660909501</v>
+        <v>0.5168041518187606</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.6046912430695236</v>
+        <v>0.60800488449265955</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.6046912430695236</v>
+        <v>0.60800488449265955</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.6046912430695236</v>
+        <v>0.60800488449265955</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.77737401371405856</v>
+        <v>0.78163393770441836</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12204,23 +12204,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.49632197972868308</v>
+        <v>0.49897323794457277</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.58390821144550953</v>
+        <v>0.58702733875832092</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.58390821144550953</v>
+        <v>0.58702733875832092</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.58390821144550953</v>
+        <v>0.58702733875832092</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.75065593420509424</v>
+        <v>0.75466579633925879</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12259,23 +12259,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.50515476816888905</v>
+        <v>0.50788869488166666</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.59429972725751656</v>
+        <v>0.59751611162549023</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.59429972725751656</v>
+        <v>0.59751611162549023</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.59429972725751656</v>
+        <v>0.59751611162549023</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>0.7640149739595764</v>
+        <v>0.76814986702183852</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0788.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0788.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A972E63-0982-400E-9E90-68795B29D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FDFC474-FC69-4499-B8F2-1980B5A2EBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6306528122933413E-2</v>
+        <v>4.7024964737600504E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4373,27 +4373,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0788.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.1100000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4403,40 +4403,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中国铁塔</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>176008471024</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>195369.40283664002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>191849.23341616002</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4459,11 +4459,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>20.961888302258565</v>
+        <v>20.641637385475576</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6306528122933413E-2</v>
+        <v>4.7024964737600504E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4722,10 +4722,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4733,22 +4733,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.5168041518187606</v>
+        <v>0.51682385771316586</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>0.89887902836008104</v>
+        <v>0.89891330288197435</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.60800488449265955</v>
-      </c>
-      <c r="G29" s="314">
+        <v>0.60802806789784225</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0.78163393770441836</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>0.78166374163649954</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5731,15 +5731,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11214,7 +11214,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11225,11 +11225,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11241,11 +11241,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11886,17 +11886,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7705625828196672E-2</v>
+        <v>4.8445769166725453E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7705625828196672E-2</v>
+        <v>4.8445769166725453E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7705625828196672E-2</v>
+        <v>4.8445769166725453E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11937,17 +11937,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6306528122933413E-2</v>
+        <v>4.7024964737600504E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6306528122933413E-2</v>
+        <v>4.7024964737600504E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6306528122933413E-2</v>
+        <v>4.7024964737600504E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12007,14 +12007,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0634043430081892</v>
+        <v>1.0634448909287502</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0634043430081892</v>
+        <v>1.0634448909287502</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12035,14 +12035,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0267144844091702</v>
+        <v>1.0266723684872021</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.0267144844091702</v>
+        <v>1.0266723684872021</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12085,21 +12085,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>107014.01009467673</v>
+        <v>107018.09057037607</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.60800488449265955</v>
+        <v>0.60802806789784225</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.60800488449265955</v>
+        <v>0.60802806789784225</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.78163393770441836</v>
+        <v>0.78166374163649954</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12149,23 +12149,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.5168041518187606</v>
+        <v>0.51682385771316586</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.60800488449265955</v>
+        <v>0.60802806789784225</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.60800488449265955</v>
+        <v>0.60802806789784225</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.60800488449265955</v>
+        <v>0.60802806789784225</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.78163393770441836</v>
+        <v>0.78166374163649954</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12204,23 +12204,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.49897323794457277</v>
+        <v>0.49895277001675786</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.58702733875832092</v>
+        <v>0.58700325884324456</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.58702733875832092</v>
+        <v>0.58700325884324456</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.58702733875832092</v>
+        <v>0.58700325884324456</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.75466579633925879</v>
+        <v>0.75463483987933422</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12259,23 +12259,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.50788869488166666</v>
+        <v>0.50788831386496192</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.59751611162549023</v>
+        <v>0.5975156633705434</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.59751611162549023</v>
+        <v>0.5975156633705434</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.59751611162549023</v>
+        <v>0.5975156633705434</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>0.76814986702183852</v>
+        <v>0.76814929075791683</v>
       </c>
       <c r="K106" s="75"/>
     </row>
